--- a/cmc_practice/conditional_gradient/Optimization.xlsx
+++ b/cmc_practice/conditional_gradient/Optimization.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,46 +511,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4092</v>
+        <v>0.5338000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>4.782678198752807</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>9.875218056704506</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>4.883614000880314</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>4.362887121330822</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>9.585857258359095</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>7.944510104122903</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.310583445840864</v>
+        <v>-4.314049864210159</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.02116426294027911</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01644456461775795</v>
+        <v>0.009502261628485175</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1595376860034359</v>
+        <v>0.07601809297971993</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1393503028518395</v>
+        <v>0.2565610638108549</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6525642572259407</v>
+        <v>0.6081447438446396</v>
       </c>
       <c r="O2" t="n">
-        <v>12663260.95667389</v>
+        <v>127493725</v>
       </c>
     </row>
     <row r="3">
@@ -558,46 +558,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1437</v>
+        <v>0.0531</v>
       </c>
       <c r="C3" t="n">
-        <v>1.061715533785077</v>
+        <v>0.9605601824846168</v>
       </c>
       <c r="D3" t="n">
-        <v>5.82561841150586</v>
+        <v>3.2634</v>
       </c>
       <c r="E3" t="n">
-        <v>2.891968267561676</v>
+        <v>3.268472307257285</v>
       </c>
       <c r="F3" t="n">
-        <v>2.642876532394856</v>
+        <v>3.303978458032574</v>
       </c>
       <c r="G3" t="n">
-        <v>5.720346612165526</v>
+        <v>3.400352295862234</v>
       </c>
       <c r="H3" t="n">
-        <v>4.960645863572666</v>
+        <v>3.588027664264268</v>
       </c>
       <c r="I3" t="n">
-        <v>3.255877274009864</v>
+        <v>2.347894839475248</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.905900879785809</v>
+        <v>-3.571062217157398</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01220075730486017</v>
+        <v>-0.7152360341747811</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004285870217341459</v>
+        <v>-0.0220223189397493</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.08598620791517997</v>
+        <v>0.02523156284905586</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001132073247686922</v>
+        <v>0.5241938079915476</v>
       </c>
       <c r="O3" t="n">
-        <v>78033.25385836163</v>
+        <v>5051.012200679325</v>
       </c>
     </row>
     <row r="4">
@@ -605,46 +605,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1078</v>
+        <v>0.0345</v>
       </c>
       <c r="C4" t="n">
-        <v>1.377016575855379</v>
+        <v>1.034227652770819</v>
       </c>
       <c r="D4" t="n">
-        <v>4.570899089347247</v>
+        <v>2.900490056268942</v>
       </c>
       <c r="E4" t="n">
-        <v>2.474639178688355</v>
+        <v>3.056937394327242</v>
       </c>
       <c r="F4" t="n">
-        <v>2.263711054239947</v>
+        <v>3.127367816775344</v>
       </c>
       <c r="G4" t="n">
-        <v>4.885976585919929</v>
+        <v>3.221133384939234</v>
       </c>
       <c r="H4" t="n">
-        <v>4.247963731902967</v>
+        <v>3.425338086496187</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.940544669336635</v>
+        <v>-4.053068875547948</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.611730186424873</v>
+        <v>-1.240437660933878</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00107891364355958</v>
+        <v>-0.1843160854486313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3221104436792867</v>
+        <v>-2.870488736783894e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01190952964330024</v>
+        <v>0.1465636740527878</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9072454240771239</v>
+        <v>1.015407628858399</v>
       </c>
       <c r="O4" t="n">
-        <v>24710.61268713722</v>
+        <v>3462.582530640538</v>
       </c>
     </row>
     <row r="5">
@@ -652,46 +652,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0941</v>
+        <v>0.0346</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8037834736236794</v>
+        <v>0.8587159225438219</v>
       </c>
       <c r="D5" t="n">
-        <v>3.904411653419012</v>
+        <v>2.757628050025445</v>
       </c>
       <c r="E5" t="n">
-        <v>2.207989382116526</v>
+        <v>2.945114149274975</v>
       </c>
       <c r="F5" t="n">
-        <v>2.054406508421507</v>
+        <v>3.019473528064733</v>
       </c>
       <c r="G5" t="n">
-        <v>4.360552157253308</v>
+        <v>3.115060729913652</v>
       </c>
       <c r="H5" t="n">
-        <v>3.887834298319341</v>
+        <v>3.342195485707683</v>
       </c>
       <c r="I5" t="n">
-        <v>3.36463316625759</v>
+        <v>2.90783173997088</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.777008929745129</v>
+        <v>-3.119416182207338</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0201650337228732</v>
+        <v>-0.8429789032252353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00423670455311033</v>
+        <v>-0.03969425362528509</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1399975771704484</v>
+        <v>0.01490068370107316</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0002098303331272916</v>
+        <v>0.3923073310940268</v>
       </c>
       <c r="O5" t="n">
-        <v>14146.26340447266</v>
+        <v>2423.040488223764</v>
       </c>
     </row>
     <row r="6">
@@ -699,46 +699,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06760000000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="C6" t="n">
-        <v>1.04475942970053</v>
+        <v>0.9296153298267981</v>
       </c>
       <c r="D6" t="n">
-        <v>3.275689976543267</v>
+        <v>2.55428231959019</v>
       </c>
       <c r="E6" t="n">
-        <v>1.998320051586038</v>
+        <v>2.814046129658467</v>
       </c>
       <c r="F6" t="n">
-        <v>1.861485529877491</v>
+        <v>2.913626322818258</v>
       </c>
       <c r="G6" t="n">
-        <v>3.937050427244033</v>
+        <v>3.007795192314697</v>
       </c>
       <c r="H6" t="n">
-        <v>3.522008835881838</v>
+        <v>3.24012935555805</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.704722622005334</v>
+        <v>-3.813968527920078</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.07991919407438</v>
+        <v>-1.749778808966201</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001420876474133467</v>
+        <v>-0.3551799378072399</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3862436942712546</v>
+        <v>-0.0007927363714504608</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002654398124637566</v>
+        <v>0.1464491777311709</v>
       </c>
       <c r="N6" t="n">
-        <v>0.923219402957896</v>
+        <v>1.138804764951298</v>
       </c>
       <c r="O6" t="n">
-        <v>5368.768608950521</v>
+        <v>1798.796062745768</v>
       </c>
     </row>
     <row r="7">
@@ -746,46 +746,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05980000000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7236944430052139</v>
+        <v>0.799166773738759</v>
       </c>
       <c r="D7" t="n">
-        <v>2.913650796609514</v>
+        <v>2.43592063855489</v>
       </c>
       <c r="E7" t="n">
-        <v>1.863243221223787</v>
+        <v>2.72689241280316</v>
       </c>
       <c r="F7" t="n">
-        <v>1.761759181790509</v>
+        <v>2.833479798690541</v>
       </c>
       <c r="G7" t="n">
-        <v>3.671085255675562</v>
+        <v>2.92910817691365</v>
       </c>
       <c r="H7" t="n">
-        <v>3.34633067021618</v>
+        <v>3.182342929316365</v>
       </c>
       <c r="I7" t="n">
-        <v>3.309433109287581</v>
+        <v>3.12073583039039</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.843135360536321</v>
+        <v>-2.879954709113324</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01946771065887965</v>
+        <v>-0.9440786679702887</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01856492849787682</v>
+        <v>-0.05442941838262002</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1266462933587606</v>
+        <v>0.01258038363532486</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005456017489530038</v>
+        <v>0.3535848903400717</v>
       </c>
       <c r="O7" t="n">
-        <v>3516.762861436218</v>
+        <v>1393.810341034179</v>
       </c>
     </row>
     <row r="8">
@@ -793,46 +793,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0461</v>
+        <v>0.0233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8783216152488995</v>
+        <v>0.8630099227966789</v>
       </c>
       <c r="D8" t="n">
-        <v>2.569394984412193</v>
+        <v>2.289734066494014</v>
       </c>
       <c r="E8" t="n">
-        <v>1.750657107497204</v>
+        <v>2.62594070808189</v>
       </c>
       <c r="F8" t="n">
-        <v>1.65751616544361</v>
+        <v>2.754062295221029</v>
       </c>
       <c r="G8" t="n">
-        <v>3.443980909043309</v>
+        <v>2.848903662598496</v>
       </c>
       <c r="H8" t="n">
-        <v>3.146546365983126</v>
+        <v>3.104552083244517</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.58371648936421</v>
+        <v>-3.659050056372951</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.278032496805145</v>
+        <v>-1.982066358317451</v>
       </c>
       <c r="K8" t="n">
-        <v>1.010712237453833e-07</v>
+        <v>-0.4974061167370735</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4399005052617071</v>
+        <v>-0.003067658163476856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0001568113694857289</v>
+        <v>0.1497421223379512</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9091702104100784</v>
+        <v>1.210569932199131</v>
       </c>
       <c r="O8" t="n">
-        <v>1725.672200876304</v>
+        <v>1063.594521276432</v>
       </c>
     </row>
     <row r="9">
@@ -840,46 +840,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0411</v>
+        <v>0.0229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6726216586262352</v>
+        <v>0.7576459252820265</v>
       </c>
       <c r="D9" t="n">
-        <v>2.345928577528073</v>
+        <v>2.190201116595907</v>
       </c>
       <c r="E9" t="n">
-        <v>1.669951819500966</v>
+        <v>2.553166727063608</v>
       </c>
       <c r="F9" t="n">
-        <v>1.601384083509224</v>
+        <v>2.68982116730717</v>
       </c>
       <c r="G9" t="n">
-        <v>3.285220618140546</v>
+        <v>2.786013198710426</v>
       </c>
       <c r="H9" t="n">
-        <v>3.043403325211209</v>
+        <v>3.060422299125159</v>
       </c>
       <c r="I9" t="n">
-        <v>3.249615596577212</v>
+        <v>3.20133975551117</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.910772749637272</v>
+        <v>-2.752038055498375</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02126975566550195</v>
+        <v>-1.04653882912544</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0448814363622472</v>
+        <v>-0.06782099380840438</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1306922263649845</v>
+        <v>0.01369407317775387</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0203015723680673</v>
+        <v>0.3608856583759522</v>
       </c>
       <c r="O9" t="n">
-        <v>1205.58158004971</v>
+        <v>855.323761781698</v>
       </c>
     </row>
     <row r="10">
@@ -887,46 +887,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0333</v>
+        <v>0.02</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7785361094760204</v>
+        <v>0.8136065139942739</v>
       </c>
       <c r="D10" t="n">
-        <v>2.129878152981577</v>
+        <v>2.077023839554948</v>
       </c>
       <c r="E10" t="n">
-        <v>1.600442612761624</v>
+        <v>2.470733469826879</v>
       </c>
       <c r="F10" t="n">
-        <v>1.537411824711483</v>
+        <v>2.626671161817623</v>
       </c>
       <c r="G10" t="n">
-        <v>3.144826600231369</v>
+        <v>2.722527090735727</v>
       </c>
       <c r="H10" t="n">
-        <v>2.919153843169356</v>
+        <v>2.998602910052003</v>
       </c>
       <c r="I10" t="n">
-        <v>-3.519862072101578</v>
+        <v>-3.571287196926145</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.37400574574282</v>
+        <v>-2.075623897350598</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.848168163236392e-05</v>
+        <v>-0.6177247698096275</v>
       </c>
       <c r="L10" t="n">
-        <v>0.489232575555808</v>
+        <v>-0.006607046336476996</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.778743131854401e-05</v>
+        <v>0.1548801022292396</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8876249635414856</v>
+        <v>1.258823532792411</v>
       </c>
       <c r="O10" t="n">
-        <v>698.0602546554975</v>
+        <v>668.4967704858734</v>
       </c>
     </row>
     <row r="11">
@@ -934,46 +934,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0299</v>
+        <v>0.0194</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6353994500294863</v>
+        <v>0.7259086397758655</v>
       </c>
       <c r="D11" t="n">
-        <v>1.979898819154055</v>
+        <v>1.993970884816837</v>
       </c>
       <c r="E11" t="n">
-        <v>1.547145260316664</v>
+        <v>2.408964305034149</v>
       </c>
       <c r="F11" t="n">
-        <v>1.502507455714599</v>
+        <v>2.574005597654541</v>
       </c>
       <c r="G11" t="n">
-        <v>3.040102949122201</v>
+        <v>2.671174150965598</v>
       </c>
       <c r="H11" t="n">
-        <v>2.851503931477747</v>
+        <v>2.963807322506811</v>
       </c>
       <c r="I11" t="n">
-        <v>3.194748472644026</v>
+        <v>3.231981227737661</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.968895955471938</v>
+        <v>-2.670520917342451</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02577949887384329</v>
+        <v>-1.148445080187748</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08036372424946608</v>
+        <v>-0.08150414535858004</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.1513289888343467</v>
+        <v>0.01645209971640484</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04212495435750605</v>
+        <v>0.3864382969405229</v>
       </c>
       <c r="O11" t="n">
-        <v>509.4283755162509</v>
+        <v>549.9718593873112</v>
       </c>
     </row>
     <row r="12">
@@ -981,46 +981,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0252</v>
+        <v>0.0173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.711923985805661</v>
+        <v>0.7745264479823243</v>
       </c>
       <c r="D12" t="n">
-        <v>1.831929855392738</v>
+        <v>1.903479743854947</v>
       </c>
       <c r="E12" t="n">
-        <v>1.500114810016867</v>
+        <v>2.339950562960844</v>
       </c>
       <c r="F12" t="n">
-        <v>1.459985358143792</v>
+        <v>2.522488708640087</v>
       </c>
       <c r="G12" t="n">
-        <v>2.944679134177301</v>
+        <v>2.619672543171363</v>
       </c>
       <c r="H12" t="n">
-        <v>2.767503500061852</v>
+        <v>2.913806363410825</v>
       </c>
       <c r="I12" t="n">
-        <v>-3.4654007058568</v>
+        <v>-3.508906631181716</v>
       </c>
       <c r="J12" t="n">
-        <v>-2.450039418648572</v>
+        <v>-2.120236423588705</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0007736065684178236</v>
+        <v>-0.7289827480416898</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5381965487073189</v>
+        <v>-0.01159637259211898</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0015907504021671</v>
+        <v>0.1613691231986512</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8667208455890372</v>
+        <v>1.298899660586913</v>
       </c>
       <c r="O12" t="n">
-        <v>329.1421978253628</v>
+        <v>439.4864432000049</v>
       </c>
     </row>
     <row r="13">
@@ -1028,46 +1028,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0228</v>
+        <v>0.0167</v>
       </c>
       <c r="C13" t="n">
-        <v>0.606655403575767</v>
+        <v>0.7004230557127864</v>
       </c>
       <c r="D13" t="n">
-        <v>1.724024229686897</v>
+        <v>1.833869454158171</v>
       </c>
       <c r="E13" t="n">
-        <v>1.462292421918918</v>
+        <v>2.2868580166805</v>
       </c>
       <c r="F13" t="n">
-        <v>1.436756280145993</v>
+        <v>2.478649036734769</v>
       </c>
       <c r="G13" t="n">
-        <v>2.870433133085898</v>
+        <v>2.577143894005835</v>
       </c>
       <c r="H13" t="n">
-        <v>2.719603777169137</v>
+        <v>2.885868477451971</v>
       </c>
       <c r="I13" t="n">
-        <v>3.162007094835487</v>
+        <v>3.240282187517602</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.999797846571187</v>
+        <v>-2.610177454267925</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.03318976988577071</v>
+        <v>-1.246768290687031</v>
       </c>
       <c r="L13" t="n">
-        <v>0.121007594583641</v>
+        <v>-0.09633925663680255</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1879741220558905</v>
+        <v>0.02029535434000425</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06636434162926375</v>
+        <v>0.4194991791475046</v>
       </c>
       <c r="O13" t="n">
-        <v>248.6696050271649</v>
+        <v>367.9149055013393</v>
       </c>
     </row>
     <row r="14">
@@ -1075,46 +1075,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0194</v>
+        <v>0.0151</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6649174221364886</v>
+        <v>0.7428387032139268</v>
       </c>
       <c r="D14" t="n">
-        <v>1.616321086348212</v>
+        <v>1.759653870787456</v>
       </c>
       <c r="E14" t="n">
-        <v>1.428195427945771</v>
+        <v>2.227846457347463</v>
       </c>
       <c r="F14" t="n">
-        <v>1.406757210115171</v>
+        <v>2.435646732235464</v>
       </c>
       <c r="G14" t="n">
-        <v>2.800701447668665</v>
+        <v>2.534444523393416</v>
       </c>
       <c r="H14" t="n">
-        <v>2.659109918038828</v>
+        <v>2.844680110170287</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.439108703167002</v>
+        <v>-3.468057244854965</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.481990458640649</v>
+        <v>-2.129896053066121</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.002742643653151939</v>
+        <v>-0.8282107908944019</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5859042930930615</v>
+        <v>-0.0180038501661335</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008084564514764934</v>
+        <v>0.1689698419344289</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8493861614912989</v>
+        <v>1.331868076253017</v>
       </c>
       <c r="O14" t="n">
-        <v>173.4990800121876</v>
+        <v>299.8383678385295</v>
       </c>
     </row>
     <row r="15">
@@ -1122,46 +1122,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0178</v>
+        <v>0.0145</v>
       </c>
       <c r="C15" t="n">
-        <v>0.585299315305601</v>
+        <v>0.6792541743980864</v>
       </c>
       <c r="D15" t="n">
-        <v>1.536813842375428</v>
+        <v>1.700921666937267</v>
       </c>
       <c r="E15" t="n">
-        <v>1.400435229356752</v>
+        <v>2.181699992899011</v>
       </c>
       <c r="F15" t="n">
-        <v>1.390832663524942</v>
+        <v>2.3985966084412</v>
       </c>
       <c r="G15" t="n">
-        <v>2.746210999032307</v>
+        <v>2.498725855703385</v>
       </c>
       <c r="H15" t="n">
-        <v>2.624001277161806</v>
+        <v>2.821836648458136</v>
       </c>
       <c r="I15" t="n">
-        <v>3.121662443205481</v>
+        <v>3.238254538755658</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.035172253796675</v>
+        <v>-2.55986266966225</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.04277546206878582</v>
+        <v>-1.339031531899484</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1714149524515638</v>
+        <v>-0.1127744289336803</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.234070325431032</v>
+        <v>0.0249686220778912</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09751984615596004</v>
+        <v>0.4549973523272572</v>
       </c>
       <c r="O15" t="n">
-        <v>135.337346104769</v>
+        <v>254.5682347103378</v>
       </c>
     </row>
     <row r="16">
@@ -1169,46 +1169,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0153</v>
+        <v>0.0133</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6304465789822189</v>
+        <v>0.7163596796812712</v>
       </c>
       <c r="D16" t="n">
-        <v>1.455432489863565</v>
+        <v>1.639140294056574</v>
       </c>
       <c r="E16" t="n">
-        <v>1.374746079049378</v>
+        <v>2.130649385789432</v>
       </c>
       <c r="F16" t="n">
-        <v>1.369127028267836</v>
+        <v>2.362181728399264</v>
       </c>
       <c r="G16" t="n">
-        <v>2.693161991456859</v>
+        <v>2.462856375815816</v>
       </c>
       <c r="H16" t="n">
-        <v>2.579029907689902</v>
+        <v>2.787517478664238</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.418459922892848</v>
+        <v>-3.424182426564972</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.501857467685433</v>
+        <v>-2.139412397695695</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.006575909542001949</v>
+        <v>-0.9256243564197103</v>
       </c>
       <c r="L16" t="n">
-        <v>0.634549181863634</v>
+        <v>-0.0263491131996023</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02242697244484664</v>
+        <v>0.1776492227849859</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8391668334345344</v>
+        <v>1.364336547237266</v>
       </c>
       <c r="O16" t="n">
-        <v>100.5037734160106</v>
+        <v>211.0212146907078</v>
       </c>
     </row>
     <row r="17">
@@ -1216,46 +1216,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0142</v>
+        <v>0.0128</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5684983095035303</v>
+        <v>0.6612904696681962</v>
       </c>
       <c r="D17" t="n">
-        <v>1.394885953513065</v>
+        <v>1.588885543256268</v>
       </c>
       <c r="E17" t="n">
-        <v>1.35361185262393</v>
+        <v>2.090000945018051</v>
       </c>
       <c r="F17" t="n">
-        <v>1.357887987217852</v>
+        <v>2.330414268205999</v>
       </c>
       <c r="G17" t="n">
-        <v>2.651613480309163</v>
+        <v>2.432463120680506</v>
       </c>
       <c r="H17" t="n">
-        <v>2.552410002653795</v>
+        <v>2.768589172276259</v>
       </c>
       <c r="I17" t="n">
-        <v>3.093197963651181</v>
+        <v>3.232580920841439</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.054116342514275</v>
+        <v>-2.51368013924079</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.05500487779768038</v>
+        <v>-1.42342328292275</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2273000241576795</v>
+        <v>-0.1310706965355563</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.2914069836022039</v>
+        <v>0.03030607308159127</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1320974627057858</v>
+        <v>0.4900610198061469</v>
       </c>
       <c r="O17" t="n">
-        <v>80.78791932081914</v>
+        <v>181.3140314022767</v>
       </c>
     </row>
     <row r="18">
@@ -1263,46 +1263,46 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0124</v>
+        <v>0.0118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.604349044592427</v>
+        <v>0.6942029874432136</v>
       </c>
       <c r="D18" t="n">
-        <v>1.331710120909477</v>
+        <v>1.536372702520306</v>
       </c>
       <c r="E18" t="n">
-        <v>1.333609495051943</v>
+        <v>2.045029114900409</v>
       </c>
       <c r="F18" t="n">
-        <v>1.341833638142397</v>
+        <v>2.298907260657307</v>
       </c>
       <c r="G18" t="n">
-        <v>2.609822589721622</v>
+        <v>2.40171551047124</v>
       </c>
       <c r="H18" t="n">
-        <v>2.518041564586533</v>
+        <v>2.739424011924642</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.393058458349768</v>
+        <v>-3.404992403631739</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.522861780705377</v>
+        <v>-2.11811340374389</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01277761642086696</v>
+        <v>-1.003919531568365</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6859563164524374</v>
+        <v>-0.035884735033638</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.04671296546296914</v>
+        <v>0.1871454178742046</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8378545101806772</v>
+        <v>1.388530041390567</v>
       </c>
       <c r="O18" t="n">
-        <v>63.07229004137699</v>
+        <v>152.5143442651745</v>
       </c>
     </row>
     <row r="19">
@@ -1310,46 +1310,46 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0115</v>
+        <v>0.0114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5547811915559437</v>
+        <v>0.6458324818285291</v>
       </c>
       <c r="D19" t="n">
-        <v>1.283913429329453</v>
+        <v>1.493249766466388</v>
       </c>
       <c r="E19" t="n">
-        <v>1.31691429486968</v>
+        <v>2.009051520872077</v>
       </c>
       <c r="F19" t="n">
-        <v>1.333700759353442</v>
+        <v>2.271356715108154</v>
       </c>
       <c r="G19" t="n">
-        <v>2.576881548837333</v>
+        <v>2.375583583378595</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4972072451119</v>
+        <v>2.72348346307234</v>
       </c>
       <c r="I19" t="n">
-        <v>3.093152830398876</v>
+        <v>3.222122904490958</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.040249129840927</v>
+        <v>-2.473482832581307</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.06992210524254162</v>
+        <v>-1.500640461129338</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2835094721278344</v>
+        <v>-0.1512541489202177</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.3591318524084403</v>
+        <v>0.03644325917054694</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1661543576090759</v>
+        <v>0.525583319993061</v>
       </c>
       <c r="O19" t="n">
-        <v>52.16421107494757</v>
+        <v>132.3961952712694</v>
       </c>
     </row>
     <row r="20">
@@ -1357,46 +1357,46 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0102</v>
+        <v>0.0105</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5839724654026375</v>
+        <v>0.6752021926468809</v>
       </c>
       <c r="D20" t="n">
-        <v>1.234185559898994</v>
+        <v>1.448029014837245</v>
       </c>
       <c r="E20" t="n">
-        <v>1.300965676268389</v>
+        <v>1.969041032277261</v>
       </c>
       <c r="F20" t="n">
-        <v>1.321623559550348</v>
+        <v>2.24373895125823</v>
       </c>
       <c r="G20" t="n">
-        <v>2.543117394723006</v>
+        <v>2.348917383682623</v>
       </c>
       <c r="H20" t="n">
-        <v>2.470400136905618</v>
+        <v>2.698427401441236</v>
       </c>
       <c r="I20" t="n">
-        <v>-3.347062415521312</v>
+        <v>-3.390387291476104</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.563809864340181</v>
+        <v>-2.092103545083122</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02195214926907927</v>
+        <v>-1.073108289484026</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7430432094179402</v>
+        <v>-0.04704322356933727</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.08299676060695411</v>
+        <v>0.1974979328253255</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8468337966705023</v>
+        <v>1.410019770922451</v>
       </c>
       <c r="O20" t="n">
-        <v>42.41903103527036</v>
+        <v>112.8168851640356</v>
       </c>
     </row>
     <row r="21">
@@ -1404,46 +1404,46 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0095</v>
+        <v>0.0102</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5438759096172132</v>
+        <v>0.6325135030635896</v>
       </c>
       <c r="D21" t="n">
-        <v>1.195446006571754</v>
+        <v>1.410857622958081</v>
       </c>
       <c r="E21" t="n">
-        <v>1.287471914447907</v>
+        <v>1.937098464398768</v>
       </c>
       <c r="F21" t="n">
-        <v>1.315722039978997</v>
+        <v>2.219685738422541</v>
       </c>
       <c r="G21" t="n">
-        <v>2.516331030338641</v>
+        <v>2.326327479448621</v>
       </c>
       <c r="H21" t="n">
-        <v>2.45383976023522</v>
+        <v>2.684899121320789</v>
       </c>
       <c r="I21" t="n">
-        <v>3.093876097321549</v>
+        <v>3.200700306526679</v>
       </c>
       <c r="J21" t="n">
-        <v>-3.020866993770948</v>
+        <v>-2.445163184534005</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.08699886004059837</v>
+        <v>-1.574125159384847</v>
       </c>
       <c r="L21" t="n">
-        <v>0.344286936115304</v>
+        <v>-0.1733596608718065</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.4323661352806371</v>
+        <v>0.04384658575403447</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2044735011187401</v>
+        <v>0.5651613217028865</v>
       </c>
       <c r="O21" t="n">
-        <v>36.03367308223078</v>
+        <v>98.83469817139594</v>
       </c>
     </row>
     <row r="22">
@@ -1451,46 +1451,46 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0094</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5681009114004044</v>
+        <v>0.6587090084589131</v>
       </c>
       <c r="D22" t="n">
-        <v>1.155391033068498</v>
+        <v>1.371526210721662</v>
       </c>
       <c r="E22" t="n">
-        <v>1.274414442090266</v>
+        <v>1.901283983436175</v>
       </c>
       <c r="F22" t="n">
-        <v>1.306493406492292</v>
+        <v>2.195276675349739</v>
       </c>
       <c r="G22" t="n">
-        <v>2.488318407265258</v>
+        <v>2.303046174332937</v>
       </c>
       <c r="H22" t="n">
-        <v>2.432470780773613</v>
+        <v>2.663277795764686</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.317962786063098</v>
+        <v>-3.372752161171063</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.576492389122074</v>
+        <v>-2.070468820295042</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03358258193349884</v>
+        <v>-1.13782026985676</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8007476579876543</v>
+        <v>-0.06016675719159211</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.1280318031925947</v>
+        <v>0.2087966544120637</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8640903067060191</v>
+        <v>1.431226592366874</v>
       </c>
       <c r="O22" t="n">
-        <v>30.34349961245174</v>
+        <v>85.22793991954458</v>
       </c>
     </row>
     <row r="23">
@@ -1498,46 +1498,46 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008</v>
+        <v>0.0092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5350693699719646</v>
+        <v>0.6208132734643913</v>
       </c>
       <c r="D23" t="n">
-        <v>1.123670023979878</v>
+        <v>1.339171457430105</v>
       </c>
       <c r="E23" t="n">
-        <v>1.263296467386064</v>
+        <v>1.872716403455222</v>
       </c>
       <c r="F23" t="n">
-        <v>1.302194567630003</v>
+        <v>2.17407550708385</v>
       </c>
       <c r="G23" t="n">
-        <v>2.466079430476366</v>
+        <v>2.283360228845681</v>
       </c>
       <c r="H23" t="n">
-        <v>2.419139546744038</v>
+        <v>2.651696514452746</v>
       </c>
       <c r="I23" t="n">
-        <v>3.090676173993571</v>
+        <v>3.177934759304658</v>
       </c>
       <c r="J23" t="n">
-        <v>-3.000228701918111</v>
+        <v>-2.419671724872376</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.106029937602372</v>
+        <v>-1.640615914213043</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4093344440713318</v>
+        <v>-0.1975490330958934</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.5088071542560494</v>
+        <v>0.05213451001777533</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2474381780558351</v>
+        <v>0.6042467104858896</v>
       </c>
       <c r="O23" t="n">
-        <v>26.41939931290829</v>
+        <v>75.29170352445757</v>
       </c>
     </row>
     <row r="24">
@@ -1545,46 +1545,46 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007200000000000001</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5555142244041374</v>
+        <v>0.6443387911341217</v>
       </c>
       <c r="D24" t="n">
-        <v>1.090678834172695</v>
+        <v>1.304590100152922</v>
       </c>
       <c r="E24" t="n">
-        <v>1.252341856146157</v>
+        <v>1.840393746132673</v>
       </c>
       <c r="F24" t="n">
-        <v>1.295051686641533</v>
+        <v>2.152256561314196</v>
       </c>
       <c r="G24" t="n">
-        <v>2.442280337798506</v>
+        <v>2.262832952232464</v>
       </c>
       <c r="H24" t="n">
-        <v>2.401765935794533</v>
+        <v>2.632859976256251</v>
       </c>
       <c r="I24" t="n">
-        <v>-3.303919351697981</v>
+        <v>-3.361163692444196</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.564725551466128</v>
+        <v>-2.043776104949898</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.04722033322668665</v>
+        <v>-1.192484196887484</v>
       </c>
       <c r="L24" t="n">
-        <v>0.857874186207322</v>
+        <v>-0.07482833498571868</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.1787184720598568</v>
+        <v>0.2209324475133859</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8881106208708864</v>
+        <v>1.449719891144835</v>
       </c>
       <c r="O24" t="n">
-        <v>22.91881724630626</v>
+        <v>65.62834477069931</v>
       </c>
     </row>
     <row r="25">
@@ -1592,46 +1592,46 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0068</v>
+        <v>0.0083</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5277263026562022</v>
+        <v>0.6102920200237061</v>
       </c>
       <c r="D25" t="n">
-        <v>1.064359922596095</v>
+        <v>1.276128987409548</v>
       </c>
       <c r="E25" t="n">
-        <v>1.242985008382672</v>
+        <v>1.814614283617002</v>
       </c>
       <c r="F25" t="n">
-        <v>1.291904008638407</v>
+        <v>2.133326339695647</v>
       </c>
       <c r="G25" t="n">
-        <v>2.423409146367526</v>
+        <v>2.245476797942352</v>
       </c>
       <c r="H25" t="n">
-        <v>2.390867617527082</v>
+        <v>2.622803285532804</v>
       </c>
       <c r="I25" t="n">
-        <v>3.092093618909142</v>
+        <v>3.165871286304825</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.969926557705019</v>
+        <v>-2.3869449805116</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1267480077809519</v>
+        <v>-1.69497918777721</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4749209148242096</v>
+        <v>-0.2237178858384369</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.5865142664693593</v>
+        <v>0.0605972949128251</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2922982370994339</v>
+        <v>0.6368951014304425</v>
       </c>
       <c r="O25" t="n">
-        <v>20.39900190005141</v>
+        <v>58.42965288738994</v>
       </c>
     </row>
     <row r="26">
@@ -1639,46 +1639,46 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.006200000000000001</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5451640004067222</v>
+        <v>0.6315033279338393</v>
       </c>
       <c r="D26" t="n">
-        <v>1.036926774530047</v>
+        <v>1.245725473475802</v>
       </c>
       <c r="E26" t="n">
-        <v>1.23367082387276</v>
+        <v>1.78548465780443</v>
       </c>
       <c r="F26" t="n">
-        <v>1.286348523600471</v>
+        <v>2.113762872623714</v>
       </c>
       <c r="G26" t="n">
-        <v>2.402941667160235</v>
+        <v>2.227342298067207</v>
       </c>
       <c r="H26" t="n">
-        <v>2.376597345740175</v>
+        <v>2.606320247604755</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.270515702373515</v>
+        <v>-3.328765183101813</v>
       </c>
       <c r="J26" t="n">
-        <v>-2.569677281529394</v>
+        <v>-2.039571492165774</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.06364139466917562</v>
+        <v>-1.255354995388586</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9196518578463352</v>
+        <v>-0.09276808090834125</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.2373264138850939</v>
+        <v>0.2344994269995431</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9202776749951137</v>
+        <v>1.473946167546788</v>
       </c>
       <c r="O26" t="n">
-        <v>18.14161705543748</v>
+        <v>51.42106880924329</v>
       </c>
     </row>
     <row r="27">
@@ -1686,46 +1686,46 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0059</v>
+        <v>0.0076</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5215067862494848</v>
+        <v>0.6006132335477613</v>
       </c>
       <c r="D27" t="n">
-        <v>1.014565829382479</v>
+        <v>1.220100157143798</v>
       </c>
       <c r="E27" t="n">
-        <v>1.2256274881178</v>
+        <v>1.761766108509525</v>
       </c>
       <c r="F27" t="n">
-        <v>1.284075004272795</v>
+        <v>2.096551931186164</v>
       </c>
       <c r="G27" t="n">
-        <v>2.386572005057754</v>
+        <v>2.211798123672879</v>
       </c>
       <c r="H27" t="n">
-        <v>2.367568163781555</v>
+        <v>2.597487729780303</v>
       </c>
       <c r="I27" t="n">
-        <v>3.100416603135062</v>
+        <v>3.179765735819039</v>
       </c>
       <c r="J27" t="n">
-        <v>-2.928106851124986</v>
+        <v>-2.334976460878398</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.1487619469694558</v>
+        <v>-1.729836564405904</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5388091021039234</v>
+        <v>-0.2514088683146561</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.6631596297641456</v>
+        <v>0.06806588370410316</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3375499647932409</v>
+        <v>0.6552554864824481</v>
       </c>
       <c r="O27" t="n">
-        <v>16.45941787190965</v>
+        <v>46.12329002116109</v>
       </c>
     </row>
     <row r="28">
@@ -1733,46 +1733,46 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0054</v>
+        <v>0.0071</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5367223541691096</v>
+        <v>0.620214792565023</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9913040605674845</v>
+        <v>1.193081574846829</v>
       </c>
       <c r="E28" t="n">
-        <v>1.217518590450785</v>
+        <v>1.735229928195367</v>
       </c>
       <c r="F28" t="n">
-        <v>1.279677935449999</v>
+        <v>2.078707429109958</v>
       </c>
       <c r="G28" t="n">
-        <v>2.368578588412305</v>
+        <v>2.195505758649116</v>
       </c>
       <c r="H28" t="n">
-        <v>2.355591056407524</v>
+        <v>2.582726764731239</v>
       </c>
       <c r="I28" t="n">
-        <v>-3.259170526540063</v>
+        <v>-3.321273935022747</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.543323451547725</v>
+        <v>-2.011630060097395</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.08096954446758813</v>
+        <v>-1.296215398212466</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9773211083137046</v>
+        <v>-0.1109515895768931</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.294984530848156</v>
+        <v>0.248620218247054</v>
       </c>
       <c r="N28" t="n">
-        <v>0.955585523996185</v>
+        <v>1.490216832006255</v>
       </c>
       <c r="O28" t="n">
-        <v>14.94292044671754</v>
+        <v>40.93287003349506</v>
       </c>
     </row>
     <row r="29">
@@ -1780,46 +1780,46 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.005200000000000001</v>
+        <v>0.006900000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5162245326132801</v>
+        <v>0.5922302225991498</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9722170720020624</v>
+        <v>1.170328122238725</v>
       </c>
       <c r="E29" t="n">
-        <v>1.210506754522226</v>
+        <v>1.713706666377872</v>
       </c>
       <c r="F29" t="n">
-        <v>1.278045208583463</v>
+        <v>2.063160850077281</v>
       </c>
       <c r="G29" t="n">
-        <v>2.354195347568298</v>
+        <v>2.181682871312262</v>
       </c>
       <c r="H29" t="n">
-        <v>2.348031026532503</v>
+        <v>2.574969944208891</v>
       </c>
       <c r="I29" t="n">
-        <v>3.103848149505561</v>
+        <v>3.164164553273121</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.88668044867375</v>
+        <v>-2.310443073413797</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1718730622609866</v>
+        <v>-1.772819001899362</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6034559807743116</v>
+        <v>-0.2811443830064861</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.7371541220474266</v>
+        <v>0.07850066255727713</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3855721273620561</v>
+        <v>0.6887544090372771</v>
       </c>
       <c r="O29" t="n">
-        <v>13.78102974162775</v>
+        <v>36.9800811735013</v>
       </c>
     </row>
     <row r="30">
@@ -1827,46 +1827,46 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0047</v>
+        <v>0.0066</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5296801754211199</v>
+        <v>0.6099765694808003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9521508048945482</v>
+        <v>1.146310800988723</v>
       </c>
       <c r="E30" t="n">
-        <v>1.203318379474953</v>
+        <v>1.689649639266759</v>
       </c>
       <c r="F30" t="n">
-        <v>1.274537344598855</v>
+        <v>2.046985143969003</v>
       </c>
       <c r="G30" t="n">
-        <v>2.338120330326297</v>
+        <v>2.167170914071852</v>
       </c>
       <c r="H30" t="n">
-        <v>2.337826240256817</v>
+        <v>2.561955057016207</v>
       </c>
       <c r="I30" t="n">
-        <v>-3.259036990036523</v>
+        <v>-3.28516944920599</v>
       </c>
       <c r="J30" t="n">
-        <v>-2.499787659801445</v>
+        <v>-2.012381656224483</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.09890572072114287</v>
+        <v>-1.351623634629955</v>
       </c>
       <c r="L30" t="n">
-        <v>1.03130875361157</v>
+        <v>-0.1333877278693169</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.3501235189657855</v>
+        <v>0.2646233752290918</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9931424224830644</v>
+        <v>1.515201761020098</v>
       </c>
       <c r="O30" t="n">
-        <v>12.7270097617269</v>
+        <v>33.11041121076129</v>
       </c>
     </row>
     <row r="31">
@@ -1874,46 +1874,46 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0046</v>
+        <v>0.0063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.511873204743469</v>
+        <v>0.5842686057574674</v>
       </c>
       <c r="D31" t="n">
-        <v>0.935926694110477</v>
+        <v>1.125463430771116</v>
       </c>
       <c r="E31" t="n">
-        <v>1.197197926204031</v>
+        <v>1.669577235659041</v>
       </c>
       <c r="F31" t="n">
-        <v>1.273394170221215</v>
+        <v>2.03259468301487</v>
       </c>
       <c r="G31" t="n">
-        <v>2.325485584234624</v>
+        <v>2.15461410031549</v>
       </c>
       <c r="H31" t="n">
-        <v>2.33150622631328</v>
+        <v>2.555046485262633</v>
       </c>
       <c r="I31" t="n">
-        <v>3.068997065786292</v>
+        <v>3.192518000744491</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.876834311014932</v>
+        <v>-2.252469719778187</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.1968735406146418</v>
+        <v>-1.787373510635739</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6802639453240973</v>
+        <v>-0.311235680691645</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8105007834474038</v>
+        <v>0.0863184210458508</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4463300282852561</v>
+        <v>0.6983876247419084</v>
       </c>
       <c r="O31" t="n">
-        <v>11.89965236756191</v>
+        <v>30.1241128417375</v>
       </c>
     </row>
     <row r="32">
@@ -1921,46 +1921,46 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004200000000000001</v>
+        <v>0.0061</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5236359745042659</v>
+        <v>0.6007005769458856</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9183879934869001</v>
+        <v>1.104182451922655</v>
       </c>
       <c r="E32" t="n">
-        <v>1.190785197456665</v>
+        <v>1.647798445957384</v>
       </c>
       <c r="F32" t="n">
-        <v>1.270665771186688</v>
+        <v>2.017828551723519</v>
       </c>
       <c r="G32" t="n">
-        <v>2.311060046943286</v>
+        <v>2.141583837536091</v>
       </c>
       <c r="H32" t="n">
-        <v>2.322834415802352</v>
+        <v>2.543349534441352</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.239055326496601</v>
+        <v>-3.239607578880006</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.474164665415222</v>
+        <v>-2.021433876223302</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.1188862663567565</v>
+        <v>-1.408875691441501</v>
       </c>
       <c r="L32" t="n">
-        <v>1.088605527059403</v>
+        <v>-0.1590085669200578</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.4082502571608667</v>
+        <v>0.2823057402425654</v>
       </c>
       <c r="N32" t="n">
-        <v>1.036206771459242</v>
+        <v>1.543177155389189</v>
       </c>
       <c r="O32" t="n">
-        <v>11.14682613324589</v>
+        <v>27.17752684455311</v>
       </c>
     </row>
     <row r="33">
@@ -1968,46 +1968,46 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0041</v>
+        <v>0.0058</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5078326710400622</v>
+        <v>0.5772746971953477</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9041392723195112</v>
+        <v>1.085116192320965</v>
       </c>
       <c r="E33" t="n">
-        <v>1.185284577308649</v>
+        <v>1.62915273371925</v>
       </c>
       <c r="F33" t="n">
-        <v>1.269901118161353</v>
+        <v>2.004549845299794</v>
       </c>
       <c r="G33" t="n">
-        <v>2.299638943666049</v>
+        <v>2.130242241142601</v>
       </c>
       <c r="H33" t="n">
-        <v>2.317430579696111</v>
+        <v>2.537248482929134</v>
       </c>
       <c r="I33" t="n">
-        <v>3.080659734691789</v>
+        <v>3.199078861000991</v>
       </c>
       <c r="J33" t="n">
-        <v>-2.820751124535997</v>
+        <v>-2.214829839973329</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.2211547523070836</v>
+        <v>-1.807790859858907</v>
       </c>
       <c r="L33" t="n">
-        <v>0.7390991209255505</v>
+        <v>-0.3430317418138163</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.8753324110555701</v>
+        <v>0.09675434219931292</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4940382686290405</v>
+        <v>0.7196124878726863</v>
       </c>
       <c r="O33" t="n">
-        <v>10.54222124774704</v>
+        <v>24.89664226107093</v>
       </c>
     </row>
     <row r="34">
@@ -2015,46 +2015,46 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0038</v>
+        <v>0.0056</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5183812620010343</v>
+        <v>0.5924811613454205</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8888672216924036</v>
+        <v>1.065976505333658</v>
       </c>
       <c r="E34" t="n">
-        <v>1.179518176057225</v>
+        <v>1.609218460876497</v>
       </c>
       <c r="F34" t="n">
-        <v>1.267724829972686</v>
+        <v>1.990933872094535</v>
       </c>
       <c r="G34" t="n">
-        <v>2.286621561111691</v>
+        <v>2.11844801132873</v>
       </c>
       <c r="H34" t="n">
-        <v>2.309954671220736</v>
+        <v>2.526706194157807</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.204306845670463</v>
+        <v>-3.221806810069881</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.459930199732772</v>
+        <v>-2.005916558623007</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.1407303083989567</v>
+        <v>-1.442946181064807</v>
       </c>
       <c r="L34" t="n">
-        <v>1.14856020645937</v>
+        <v>-0.1838657259469929</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.4680978172271095</v>
+        <v>0.3005098354480262</v>
       </c>
       <c r="N34" t="n">
-        <v>1.084254951767754</v>
+        <v>1.562885816001442</v>
       </c>
       <c r="O34" t="n">
-        <v>9.988138136311102</v>
+        <v>22.64119138118301</v>
       </c>
     </row>
     <row r="35">
@@ -2062,46 +2062,46 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0037</v>
+        <v>0.0054</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5042350471918826</v>
+        <v>0.5711211487054948</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8761417914909879</v>
+        <v>1.048773904175501</v>
       </c>
       <c r="E35" t="n">
-        <v>1.174501231816291</v>
+        <v>1.592126338881626</v>
       </c>
       <c r="F35" t="n">
-        <v>1.267272004403336</v>
+        <v>1.978754994345502</v>
       </c>
       <c r="G35" t="n">
-        <v>2.276153627474003</v>
+        <v>2.108267557543798</v>
       </c>
       <c r="H35" t="n">
-        <v>2.305297012286815</v>
+        <v>2.521308800040131</v>
       </c>
       <c r="I35" t="n">
-        <v>3.101301750286074</v>
+        <v>3.183659968067074</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.754555879657962</v>
+        <v>-2.196868774793042</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.2450858174211728</v>
+        <v>-1.835561837689719</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7916788839593156</v>
+        <v>-0.3768153278629881</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.9326570946759054</v>
+        <v>0.1103090286196395</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5387359959335934</v>
+        <v>0.7531205376523495</v>
       </c>
       <c r="O35" t="n">
-        <v>9.536464919813854</v>
+        <v>20.88323914035283</v>
       </c>
     </row>
     <row r="36">
@@ -2109,46 +2109,46 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0034</v>
+        <v>0.0051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5138441939933311</v>
+        <v>0.5852288583300473</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8627082101077368</v>
+        <v>1.03124743370907</v>
       </c>
       <c r="E36" t="n">
-        <v>1.169248759734112</v>
+        <v>1.573616822728141</v>
       </c>
       <c r="F36" t="n">
-        <v>1.265512309857693</v>
+        <v>1.966034914605576</v>
       </c>
       <c r="G36" t="n">
-        <v>2.264281027802049</v>
+        <v>2.097478581487608</v>
       </c>
       <c r="H36" t="n">
-        <v>2.298760736526308</v>
+        <v>2.511760583423237</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.179469013624175</v>
+        <v>-3.242549264605645</v>
       </c>
       <c r="J36" t="n">
-        <v>-2.431291468094023</v>
+        <v>-1.958512561857038</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.1624402922784968</v>
+        <v>-1.446428426786194</v>
       </c>
       <c r="L36" t="n">
-        <v>1.204180134336545</v>
+        <v>-0.2054399326347731</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.5220479557437829</v>
+        <v>0.3184392140607124</v>
       </c>
       <c r="N36" t="n">
-        <v>1.132866611411957</v>
+        <v>1.570635986511023</v>
       </c>
       <c r="O36" t="n">
-        <v>9.119231710392455</v>
+        <v>19.14848953844182</v>
       </c>
     </row>
     <row r="37">
@@ -2156,46 +2156,46 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5012869290874317</v>
+        <v>0.5657071899030753</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8515086112018508</v>
+        <v>1.015999657731683</v>
       </c>
       <c r="E37" t="n">
-        <v>1.164721016957269</v>
+        <v>1.558214591955618</v>
       </c>
       <c r="F37" t="n">
-        <v>1.265303780460921</v>
+        <v>1.95496039288465</v>
       </c>
       <c r="G37" t="n">
-        <v>2.254807509257993</v>
+        <v>2.08840548071373</v>
       </c>
       <c r="H37" t="n">
-        <v>2.294796696500919</v>
+        <v>2.506960847978985</v>
       </c>
       <c r="I37" t="n">
-        <v>3.062844850204983</v>
+        <v>3.142090960407444</v>
       </c>
       <c r="J37" t="n">
-        <v>-2.738483844305047</v>
+        <v>-2.200178256484421</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.2717748430323347</v>
+        <v>-1.873474142309295</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8654812551447838</v>
+        <v>-0.4130653786930554</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.9920348894340145</v>
+        <v>0.1278754813009154</v>
       </c>
       <c r="N37" t="n">
-        <v>0.6043127924710086</v>
+        <v>0.8013478718898031</v>
       </c>
       <c r="O37" t="n">
-        <v>8.774969803975647</v>
+        <v>17.782107218439</v>
       </c>
     </row>
     <row r="38">
@@ -2203,46 +2203,46 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5099962260192313</v>
+        <v>0.5785891087555972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8393026368531273</v>
+        <v>0.9999187681606027</v>
       </c>
       <c r="E38" t="n">
-        <v>1.159836931033305</v>
+        <v>1.541056148284293</v>
       </c>
       <c r="F38" t="n">
-        <v>1.263944383874846</v>
+        <v>1.943120264026762</v>
       </c>
       <c r="G38" t="n">
-        <v>2.24376824510244</v>
+        <v>2.078602830716666</v>
       </c>
       <c r="H38" t="n">
-        <v>2.289049051227217</v>
+        <v>2.498432783098539</v>
       </c>
       <c r="I38" t="n">
-        <v>-3.191824299368762</v>
+        <v>-3.242294886930238</v>
       </c>
       <c r="J38" t="n">
-        <v>-2.363028403661672</v>
+        <v>-1.930758671806454</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.1809691486144314</v>
+        <v>-1.460297486756599</v>
       </c>
       <c r="L38" t="n">
-        <v>1.246035036071556</v>
+        <v>-0.2301402350076905</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.5599825380043719</v>
+        <v>0.3382493529001072</v>
       </c>
       <c r="N38" t="n">
-        <v>1.175576327580237</v>
+        <v>1.585057664046797</v>
       </c>
       <c r="O38" t="n">
-        <v>8.455725824161735</v>
+        <v>16.44057158290416</v>
       </c>
     </row>
     <row r="39">
@@ -2250,46 +2250,46 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4985205823905285</v>
+        <v>0.5606309539758738</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8293754106275315</v>
+        <v>0.9861445841927575</v>
       </c>
       <c r="E39" t="n">
-        <v>1.155680432186397</v>
+        <v>1.526949786199601</v>
       </c>
       <c r="F39" t="n">
-        <v>1.263888864896656</v>
+        <v>1.9329059396813</v>
       </c>
       <c r="G39" t="n">
-        <v>2.235076617674809</v>
+        <v>2.070423169370928</v>
       </c>
       <c r="H39" t="n">
-        <v>2.285597285783912</v>
+        <v>2.494139920038995</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05599525099408</v>
+        <v>3.122493629579549</v>
       </c>
       <c r="J39" t="n">
-        <v>-2.693000813357501</v>
+        <v>-2.187382860977958</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2968631381197478</v>
+        <v>-1.895660117437841</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9245910835687225</v>
+        <v>-0.4490280461652316</v>
       </c>
       <c r="M39" t="n">
-        <v>-1.040745010177389</v>
+        <v>0.1447211499370493</v>
       </c>
       <c r="N39" t="n">
-        <v>0.6595846857052509</v>
+        <v>0.8377654550446337</v>
       </c>
       <c r="O39" t="n">
-        <v>8.188394845513296</v>
+        <v>15.36775096406466</v>
       </c>
     </row>
     <row r="40">
@@ -2297,46 +2297,46 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0028</v>
+        <v>0.0043</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5064487538631995</v>
+        <v>0.5726717085512111</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8184560443331779</v>
+        <v>0.9712290052004552</v>
       </c>
       <c r="E40" t="n">
-        <v>1.151177547118448</v>
+        <v>1.510863519652505</v>
       </c>
       <c r="F40" t="n">
-        <v>1.26283704177454</v>
+        <v>1.921710849947821</v>
       </c>
       <c r="G40" t="n">
-        <v>2.224921570628467</v>
+        <v>2.061372369879589</v>
       </c>
       <c r="H40" t="n">
-        <v>2.280556646723668</v>
+        <v>2.486354960053522</v>
       </c>
       <c r="I40" t="n">
-        <v>-3.153885237411553</v>
+        <v>-3.274023352145582</v>
       </c>
       <c r="J40" t="n">
-        <v>-2.342452376212558</v>
+        <v>-1.876943556063552</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.2039178344332346</v>
+        <v>-1.447813844173786</v>
       </c>
       <c r="L40" t="n">
-        <v>1.301623871095926</v>
+        <v>-0.2505674974570751</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.6089254853739036</v>
+        <v>0.3574977579313706</v>
       </c>
       <c r="N40" t="n">
-        <v>1.229587827658822</v>
+        <v>1.588602912979021</v>
       </c>
       <c r="O40" t="n">
-        <v>7.939492992671441</v>
+        <v>14.31612399727977</v>
       </c>
     </row>
     <row r="41">
@@ -2344,46 +2344,46 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0029</v>
+        <v>0.0044</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4961998186876302</v>
+        <v>0.5561309197902149</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8096055007556499</v>
+        <v>0.9589818631870199</v>
       </c>
       <c r="E41" t="n">
-        <v>1.147383280050103</v>
+        <v>1.498141206988052</v>
       </c>
       <c r="F41" t="n">
-        <v>1.262945644896639</v>
+        <v>1.91237005305398</v>
       </c>
       <c r="G41" t="n">
-        <v>2.216986798871661</v>
+        <v>2.054045709048212</v>
       </c>
       <c r="H41" t="n">
-        <v>2.277613934030286</v>
+        <v>2.482494626251102</v>
       </c>
       <c r="I41" t="n">
-        <v>3.002021207306219</v>
+        <v>3.0748743440527</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.683783543112257</v>
+        <v>-2.195099715438839</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.3245522442472845</v>
+        <v>-1.929193431161925</v>
       </c>
       <c r="L41" t="n">
-        <v>1.001739842165769</v>
+        <v>-0.4876063732065715</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.091298518227452</v>
+        <v>0.1663512305488313</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7334740086379961</v>
+        <v>0.8899572399218744</v>
       </c>
       <c r="O41" t="n">
-        <v>7.729256140345296</v>
+        <v>13.46632173337564</v>
       </c>
     </row>
     <row r="42">
@@ -2391,46 +2391,46 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0026</v>
+        <v>0.004</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5034667007146242</v>
+        <v>0.5672133908569699</v>
       </c>
       <c r="D42" t="n">
-        <v>0.799474672528433</v>
+        <v>0.9451039042410662</v>
       </c>
       <c r="E42" t="n">
-        <v>1.143114667029641</v>
+        <v>1.483060934580192</v>
       </c>
       <c r="F42" t="n">
-        <v>1.26218814806872</v>
+        <v>1.901810156778434</v>
       </c>
       <c r="G42" t="n">
-        <v>2.207392771452073</v>
+        <v>2.045739853342815</v>
       </c>
       <c r="H42" t="n">
-        <v>2.273135928246648</v>
+        <v>2.475487461751253</v>
       </c>
       <c r="I42" t="n">
-        <v>-3.174585910261219</v>
+        <v>-3.287873400442464</v>
       </c>
       <c r="J42" t="n">
-        <v>-2.264298997314774</v>
+        <v>-1.839516013239766</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.2204833683675762</v>
+        <v>-1.444492852397215</v>
       </c>
       <c r="L42" t="n">
-        <v>1.335031934473008</v>
+        <v>-0.2734025413207869</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.6327634251769955</v>
+        <v>0.3786033350249083</v>
       </c>
       <c r="N42" t="n">
-        <v>1.271298744731832</v>
+        <v>1.598117388503028</v>
       </c>
       <c r="O42" t="n">
-        <v>7.532218773166042</v>
+        <v>12.63734669649753</v>
       </c>
     </row>
     <row r="43">
@@ -2438,46 +2438,46 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0027</v>
+        <v>0.0041</v>
       </c>
       <c r="C43" t="n">
-        <v>0.493903763926087</v>
+        <v>0.5517930436917722</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7915088609868406</v>
+        <v>0.9339654245711428</v>
       </c>
       <c r="E43" t="n">
-        <v>1.139569312137608</v>
+        <v>1.471350719432282</v>
       </c>
       <c r="F43" t="n">
-        <v>1.262377541913371</v>
+        <v>1.893109305986037</v>
       </c>
       <c r="G43" t="n">
-        <v>2.200008365340838</v>
+        <v>2.039071307269543</v>
       </c>
       <c r="H43" t="n">
-        <v>2.27053115156951</v>
+        <v>2.47197798145826</v>
       </c>
       <c r="I43" t="n">
-        <v>3.011904494529282</v>
+        <v>3.066387158218553</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.62278874188411</v>
+        <v>-2.175687666263113</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.3478000395655141</v>
+        <v>-1.938780043286214</v>
       </c>
       <c r="L43" t="n">
-        <v>1.049925896655235</v>
+        <v>-0.5236868066601235</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.12427347703008</v>
+        <v>0.1851521007283959</v>
       </c>
       <c r="N43" t="n">
-        <v>0.784008486813468</v>
+        <v>0.9213113642638155</v>
       </c>
       <c r="O43" t="n">
-        <v>7.36416372680908</v>
+        <v>11.95883644387468</v>
       </c>
     </row>
     <row r="44">
@@ -2485,46 +2485,46 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0024</v>
+        <v>0.0037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5007023658987156</v>
+        <v>0.562102879561332</v>
       </c>
       <c r="D44" t="n">
-        <v>0.782290257459089</v>
+        <v>0.9212158468987224</v>
       </c>
       <c r="E44" t="n">
-        <v>1.135553414888009</v>
+        <v>1.457369183305137</v>
       </c>
       <c r="F44" t="n">
-        <v>1.261803922471174</v>
+        <v>1.883200441924188</v>
       </c>
       <c r="G44" t="n">
-        <v>2.191032804366436</v>
+        <v>2.031470238522724</v>
       </c>
       <c r="H44" t="n">
-        <v>2.266517540374668</v>
+        <v>2.465620248327763</v>
       </c>
       <c r="I44" t="n">
-        <v>-3.163833086431791</v>
+        <v>-3.273350416635536</v>
       </c>
       <c r="J44" t="n">
-        <v>-2.21532867363595</v>
+        <v>-1.826909423162796</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.23952765810991</v>
+        <v>-1.458799849678618</v>
       </c>
       <c r="L44" t="n">
-        <v>1.376812465366909</v>
+        <v>-0.3010972168652585</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.6616323643277447</v>
+        <v>0.4027637771845655</v>
       </c>
       <c r="N44" t="n">
-        <v>1.320717419779216</v>
+        <v>1.618382741223547</v>
       </c>
       <c r="O44" t="n">
-        <v>7.206332486247163</v>
+        <v>11.29762554091585</v>
       </c>
     </row>
     <row r="45">
@@ -2532,46 +2532,46 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0025</v>
+        <v>0.0038</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4919074808131224</v>
+        <v>0.5479117023654035</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7750959720244609</v>
+        <v>0.9110477833994948</v>
       </c>
       <c r="E45" t="n">
-        <v>1.132253220312814</v>
+        <v>1.446579357883097</v>
       </c>
       <c r="F45" t="n">
-        <v>1.262079942974124</v>
+        <v>1.875118540586667</v>
       </c>
       <c r="G45" t="n">
-        <v>2.18418640796157</v>
+        <v>2.025444024615773</v>
       </c>
       <c r="H45" t="n">
-        <v>2.264247620085239</v>
+        <v>2.462485469551478</v>
       </c>
       <c r="I45" t="n">
-        <v>2.989072239556597</v>
+        <v>3.038430303077884</v>
       </c>
       <c r="J45" t="n">
-        <v>-2.586312860918696</v>
+        <v>-2.169992356616507</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.3724705640407546</v>
+        <v>-1.955533011500305</v>
       </c>
       <c r="L45" t="n">
-        <v>1.110496648827913</v>
+        <v>-0.5613669354045639</v>
       </c>
       <c r="M45" t="n">
-        <v>-1.156559228071789</v>
+        <v>0.2080487020037423</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8481895066808076</v>
+        <v>0.9639019095235862</v>
       </c>
       <c r="O45" t="n">
-        <v>7.070729929891312</v>
+        <v>10.75328520460434</v>
       </c>
     </row>
     <row r="46">
@@ -2579,46 +2579,46 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0022</v>
+        <v>0.0035</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4981503927099811</v>
+        <v>0.557375673048111</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7666924499421031</v>
+        <v>0.899339830867434</v>
       </c>
       <c r="E46" t="n">
-        <v>1.12849141085193</v>
+        <v>1.43365133087944</v>
       </c>
       <c r="F46" t="n">
-        <v>1.261700984738758</v>
+        <v>1.8658598957779</v>
       </c>
       <c r="G46" t="n">
-        <v>2.175834543871487</v>
+        <v>2.018537922389847</v>
       </c>
       <c r="H46" t="n">
-        <v>2.260707474801728</v>
+        <v>2.456790852023372</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.119527719369596</v>
+        <v>-3.237953688926181</v>
       </c>
       <c r="J46" t="n">
-        <v>-2.195230525389007</v>
+        <v>-1.831327705687199</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.2618456471056328</v>
+        <v>-1.485209779777735</v>
       </c>
       <c r="L46" t="n">
-        <v>1.429267010518748</v>
+        <v>-0.3329924287711055</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.6973553742154381</v>
+        <v>0.4299858537497471</v>
       </c>
       <c r="N46" t="n">
-        <v>1.379998834611885</v>
+        <v>1.647068226886258</v>
       </c>
       <c r="O46" t="n">
-        <v>6.942774445292738</v>
+        <v>10.22301319797794</v>
       </c>
     </row>
     <row r="47">
@@ -2626,46 +2626,46 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0024</v>
+        <v>0.0036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.490191500863406</v>
+        <v>0.544092020281201</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7601762193963746</v>
+        <v>0.8897824944894928</v>
       </c>
       <c r="E47" t="n">
-        <v>1.125432669324424</v>
+        <v>1.423435316992139</v>
       </c>
       <c r="F47" t="n">
-        <v>1.262069629995474</v>
+        <v>1.858163912641979</v>
       </c>
       <c r="G47" t="n">
-        <v>2.169513526051696</v>
+        <v>2.012977990149607</v>
       </c>
       <c r="H47" t="n">
-        <v>2.258769915793311</v>
+        <v>2.453956822835392</v>
       </c>
       <c r="I47" t="n">
-        <v>2.931688311985579</v>
+        <v>3.071783001831591</v>
       </c>
       <c r="J47" t="n">
-        <v>-2.572739646522557</v>
+        <v>-2.124385431912796</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.398959352071877</v>
+        <v>-1.937681531594967</v>
       </c>
       <c r="L47" t="n">
-        <v>1.185023479524413</v>
+        <v>-0.5927202324620602</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.189165550668982</v>
+        <v>0.2243098513638504</v>
       </c>
       <c r="N47" t="n">
-        <v>0.9280136406907806</v>
+        <v>0.9733718242890835</v>
       </c>
       <c r="O47" t="n">
-        <v>6.832565692241276</v>
+        <v>9.784043242642307</v>
       </c>
     </row>
     <row r="48">
@@ -2673,46 +2673,46 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0021</v>
+        <v>0.0032</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4960510932100992</v>
+        <v>0.5531917078147823</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7521772213181691</v>
+        <v>0.8789314899544445</v>
       </c>
       <c r="E48" t="n">
-        <v>1.121774128473072</v>
+        <v>1.411335296337226</v>
       </c>
       <c r="F48" t="n">
-        <v>1.261884719234344</v>
+        <v>1.849340729719604</v>
       </c>
       <c r="G48" t="n">
-        <v>2.161452696267566</v>
+        <v>2.006538784849978</v>
       </c>
       <c r="H48" t="n">
-        <v>2.255576100733065</v>
+        <v>2.448626716840625</v>
       </c>
       <c r="I48" t="n">
-        <v>-3.163222091019791</v>
+        <v>-3.258051627651086</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.096763408352628</v>
+        <v>-1.790643355834086</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.2720984160966031</v>
+        <v>-1.469232900531833</v>
       </c>
       <c r="L48" t="n">
-        <v>1.445640930443167</v>
+        <v>-0.3540375098683256</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.6949191118857385</v>
+        <v>0.4544016872399596</v>
       </c>
       <c r="N48" t="n">
-        <v>1.415394035474423</v>
+        <v>1.655531962620936</v>
       </c>
       <c r="O48" t="n">
-        <v>6.727425324309096</v>
+        <v>9.354624152909352</v>
       </c>
     </row>
     <row r="49">
@@ -2720,46 +2720,46 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0022</v>
+        <v>0.0034</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4883666195232165</v>
+        <v>0.5409957291412916</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7461944459958605</v>
+        <v>0.8703888504479211</v>
       </c>
       <c r="E49" t="n">
-        <v>1.118846996129476</v>
+        <v>1.402117478107245</v>
       </c>
       <c r="F49" t="n">
-        <v>1.262270607277882</v>
+        <v>1.842289919352923</v>
       </c>
       <c r="G49" t="n">
-        <v>2.155454315470444</v>
+        <v>2.001571946137626</v>
       </c>
       <c r="H49" t="n">
-        <v>2.253811718396022</v>
+        <v>2.446088813627122</v>
       </c>
       <c r="I49" t="n">
-        <v>2.984121774652634</v>
+        <v>2.996078224222768</v>
       </c>
       <c r="J49" t="n">
-        <v>-2.482432998979429</v>
+        <v>-2.149986122972207</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.4157159487582041</v>
+        <v>-1.97358123596581</v>
       </c>
       <c r="L49" t="n">
-        <v>1.208592726189567</v>
+        <v>-0.6344892318073916</v>
       </c>
       <c r="M49" t="n">
-        <v>-1.193613913290986</v>
+        <v>0.2577141643250808</v>
       </c>
       <c r="N49" t="n">
-        <v>0.962742032440453</v>
+        <v>1.043847574070603</v>
       </c>
       <c r="O49" t="n">
-        <v>6.636434546249918</v>
+        <v>8.997657173148994</v>
       </c>
     </row>
     <row r="50">
@@ -2767,46 +2767,46 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4938572808645012</v>
+        <v>0.5493430096245686</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7390914656169149</v>
+        <v>0.8601195755382927</v>
       </c>
       <c r="E50" t="n">
-        <v>1.115470957650723</v>
+        <v>1.390640102479397</v>
       </c>
       <c r="F50" t="n">
-        <v>1.262152515939488</v>
+        <v>1.833868870238978</v>
       </c>
       <c r="G50" t="n">
-        <v>2.148086365367169</v>
+        <v>1.995642829679463</v>
       </c>
       <c r="H50" t="n">
-        <v>2.250971365086919</v>
+        <v>2.44132119341263</v>
       </c>
       <c r="I50" t="n">
-        <v>-3.071767550355008</v>
+        <v>-3.269784591227276</v>
       </c>
       <c r="J50" t="n">
-        <v>-2.113656660090663</v>
+        <v>-1.757015767367985</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.2988405752493864</v>
+        <v>-1.456714809423739</v>
       </c>
       <c r="L50" t="n">
-        <v>1.513965807761457</v>
+        <v>-0.3757053916926106</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.7376424228132054</v>
+        <v>0.4805485664560406</v>
       </c>
       <c r="N50" t="n">
-        <v>1.491222325033428</v>
+        <v>1.667292326314228</v>
       </c>
       <c r="O50" t="n">
-        <v>6.550147705015041</v>
+        <v>8.64963341544254</v>
       </c>
     </row>
     <row r="51">
@@ -2814,46 +2814,46 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.002</v>
+        <v>0.0032</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4867260312020622</v>
+        <v>0.5378856268220131</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7333859693654997</v>
+        <v>0.8522681695095738</v>
       </c>
       <c r="E51" t="n">
-        <v>1.112642334584923</v>
+        <v>1.382098037743687</v>
       </c>
       <c r="F51" t="n">
-        <v>1.262656142523132</v>
+        <v>1.827240147453183</v>
       </c>
       <c r="G51" t="n">
-        <v>2.142314907790809</v>
+        <v>1.991097546889793</v>
       </c>
       <c r="H51" t="n">
-        <v>2.249451867006812</v>
+        <v>2.438999106811335</v>
       </c>
       <c r="I51" t="n">
-        <v>3.032630840981944</v>
+        <v>2.989199588663999</v>
       </c>
       <c r="J51" t="n">
-        <v>-2.396174113923013</v>
+        <v>-2.131311992839997</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.4305755076584549</v>
+        <v>-1.971635727999825</v>
       </c>
       <c r="L51" t="n">
-        <v>1.230463279520771</v>
+        <v>-0.6683031208827446</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.191428910718244</v>
+        <v>0.283302318151872</v>
       </c>
       <c r="N51" t="n">
-        <v>0.9975573577536475</v>
+        <v>1.077273030753017</v>
       </c>
       <c r="O51" t="n">
-        <v>6.475284781224142</v>
+        <v>8.357693082420216</v>
       </c>
     </row>
     <row r="52">
@@ -2861,46 +2861,46 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0019</v>
+        <v>0.0028</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4918178408216219</v>
+        <v>0.5457298314999075</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7271268491989227</v>
+        <v>0.8427207129900552</v>
       </c>
       <c r="E52" t="n">
-        <v>1.109555898900436</v>
+        <v>1.371366089693308</v>
       </c>
       <c r="F52" t="n">
-        <v>1.262591756797127</v>
+        <v>1.819254408994508</v>
       </c>
       <c r="G52" t="n">
-        <v>2.13564742015379</v>
+        <v>1.985632602157832</v>
       </c>
       <c r="H52" t="n">
-        <v>2.246948077988306</v>
+        <v>2.434641583367948</v>
       </c>
       <c r="I52" t="n">
-        <v>-2.931255720409451</v>
+        <v>-3.261665781335764</v>
       </c>
       <c r="J52" t="n">
-        <v>-2.159708449165479</v>
+        <v>-1.73939466124762</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.3309527962021634</v>
+        <v>-1.456154319891757</v>
       </c>
       <c r="L52" t="n">
-        <v>1.598720207964585</v>
+        <v>-0.4007261213915983</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.7912624296771317</v>
+        <v>0.5098734895638578</v>
       </c>
       <c r="N52" t="n">
-        <v>1.582537806859869</v>
+        <v>1.687502184733187</v>
       </c>
       <c r="O52" t="n">
-        <v>6.403774556024842</v>
+        <v>8.073388822915799</v>
       </c>
     </row>
     <row r="53">
@@ -2908,46 +2908,46 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0019</v>
+        <v>0.003</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4853140010552829</v>
+        <v>0.5350691237839676</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7216418621320303</v>
+        <v>0.8354907899421897</v>
       </c>
       <c r="E53" t="n">
-        <v>1.106818932379741</v>
+        <v>1.36344903254647</v>
       </c>
       <c r="F53" t="n">
-        <v>1.263230400854345</v>
+        <v>1.813038463509427</v>
       </c>
       <c r="G53" t="n">
-        <v>2.130086291439112</v>
+        <v>1.981500476642569</v>
       </c>
       <c r="H53" t="n">
-        <v>2.245685698473162</v>
+        <v>2.432549593051771</v>
       </c>
       <c r="I53" t="n">
-        <v>3.052709031375619</v>
+        <v>2.966374506690638</v>
       </c>
       <c r="J53" t="n">
-        <v>-2.330650223939184</v>
+        <v>-2.122390836273889</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.446043323929448</v>
+        <v>-1.975221069607684</v>
       </c>
       <c r="L53" t="n">
-        <v>1.263734827086195</v>
+        <v>-0.7026891091921644</v>
       </c>
       <c r="M53" t="n">
-        <v>-1.188905491798171</v>
+        <v>0.3133188014597065</v>
       </c>
       <c r="N53" t="n">
-        <v>1.045045146501887</v>
+        <v>1.120356808372489</v>
       </c>
       <c r="O53" t="n">
-        <v>6.341368704048325</v>
+        <v>7.833912635398395</v>
       </c>
     </row>
     <row r="54">
@@ -2955,46 +2955,46 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0018</v>
+        <v>0.0026</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4901920516128915</v>
+        <v>0.5423630399326876</v>
       </c>
       <c r="D54" t="n">
-        <v>0.715842507168495</v>
+        <v>0.8266171450635414</v>
       </c>
       <c r="E54" t="n">
-        <v>1.103868494092754</v>
+        <v>1.353433022240007</v>
       </c>
       <c r="F54" t="n">
-        <v>1.263231359264186</v>
+        <v>1.805491280791322</v>
       </c>
       <c r="G54" t="n">
-        <v>2.123780207050961</v>
+        <v>1.97649593161702</v>
       </c>
       <c r="H54" t="n">
-        <v>2.243404481424416</v>
+        <v>2.428613014697733</v>
       </c>
       <c r="I54" t="n">
-        <v>-2.918118582006168</v>
+        <v>-3.236554107738356</v>
       </c>
       <c r="J54" t="n">
-        <v>-2.105670255665138</v>
+        <v>-1.734653066459583</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.3450786650623405</v>
+        <v>-1.465308469228967</v>
       </c>
       <c r="L54" t="n">
-        <v>1.633658026627112</v>
+        <v>-0.4288375506567935</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.7938538016862757</v>
+        <v>0.5425863425634166</v>
       </c>
       <c r="N54" t="n">
-        <v>1.638650025941757</v>
+        <v>1.715466302781314</v>
       </c>
       <c r="O54" t="n">
-        <v>6.281525234531522</v>
+        <v>7.600450176536223</v>
       </c>
     </row>
     <row r="55">
@@ -3002,46 +3002,46 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0018</v>
+        <v>0.0029</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4840570924723772</v>
+        <v>0.5325378553487429</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7107637841953944</v>
+        <v>0.8199578425135813</v>
       </c>
       <c r="E55" t="n">
-        <v>1.101260389206275</v>
+        <v>1.346104294362188</v>
       </c>
       <c r="F55" t="n">
-        <v>1.263898127265439</v>
+        <v>1.799682025829556</v>
       </c>
       <c r="G55" t="n">
-        <v>2.118528465835234</v>
+        <v>1.972767766685481</v>
       </c>
       <c r="H55" t="n">
-        <v>2.242315923404548</v>
+        <v>2.426758833246751</v>
       </c>
       <c r="I55" t="n">
-        <v>3.054786809826405</v>
+        <v>2.924695133629833</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.277857749827618</v>
+        <v>-2.123892481936527</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.461445177583401</v>
+        <v>-1.985331882351051</v>
       </c>
       <c r="L55" t="n">
-        <v>1.304664323559852</v>
+        <v>-0.7380355438360325</v>
       </c>
       <c r="M55" t="n">
-        <v>-1.18438887356604</v>
+        <v>0.3487069729007683</v>
       </c>
       <c r="N55" t="n">
-        <v>1.101972253918684</v>
+        <v>1.174717959238976</v>
       </c>
       <c r="O55" t="n">
-        <v>6.229175524424686</v>
+        <v>7.403472613600167</v>
       </c>
     </row>
     <row r="56">
@@ -3049,46 +3049,46 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0017</v>
+        <v>0.0024</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4886844059636145</v>
+        <v>0.539475111455758</v>
       </c>
       <c r="D56" t="n">
-        <v>0.705384265434153</v>
+        <v>0.8114206765726759</v>
       </c>
       <c r="E56" t="n">
-        <v>1.098447519186053</v>
+        <v>1.33644312944972</v>
       </c>
       <c r="F56" t="n">
-        <v>1.263971506418769</v>
+        <v>1.792322644877526</v>
       </c>
       <c r="G56" t="n">
-        <v>2.112583214624312</v>
+        <v>1.968057990383505</v>
       </c>
       <c r="H56" t="n">
-        <v>2.240263304799473</v>
+        <v>2.423127914712128</v>
       </c>
       <c r="I56" t="n">
-        <v>-2.884423449694554</v>
+        <v>-3.291309181020967</v>
       </c>
       <c r="J56" t="n">
-        <v>-2.065187865802566</v>
+        <v>-1.667385233461765</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.3602360779116718</v>
+        <v>-1.415421617159759</v>
       </c>
       <c r="L56" t="n">
-        <v>1.67480683088081</v>
+        <v>-0.4359821306921053</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.7981437590701486</v>
+        <v>0.5672442443384641</v>
       </c>
       <c r="N56" t="n">
-        <v>1.701727919590798</v>
+        <v>1.710089014080056</v>
       </c>
       <c r="O56" t="n">
-        <v>6.178794606923603</v>
+        <v>7.210575732876094</v>
       </c>
     </row>
     <row r="57">
@@ -3096,46 +3096,46 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0017</v>
+        <v>0.0028</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4829501226089956</v>
+        <v>0.5302812291538138</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7006742928110505</v>
+        <v>0.8054715423885933</v>
       </c>
       <c r="E57" t="n">
-        <v>1.095967757070987</v>
+        <v>1.329838654057857</v>
       </c>
       <c r="F57" t="n">
-        <v>1.264669926470354</v>
+        <v>1.786974713416159</v>
       </c>
       <c r="G57" t="n">
-        <v>2.107634978769031</v>
+        <v>1.964696037392997</v>
       </c>
       <c r="H57" t="n">
-        <v>2.239347794644618</v>
+        <v>2.421416621350611</v>
       </c>
       <c r="I57" t="n">
-        <v>3.038188393651986</v>
+        <v>2.839094271699045</v>
       </c>
       <c r="J57" t="n">
-        <v>-2.237005576673229</v>
+        <v>-2.147567266555769</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.476929072713292</v>
+        <v>-2.01206144833691</v>
       </c>
       <c r="L57" t="n">
-        <v>1.354184065242101</v>
+        <v>-0.7774747690281129</v>
       </c>
       <c r="M57" t="n">
-        <v>-1.178309473882222</v>
+        <v>0.3944557301343144</v>
       </c>
       <c r="N57" t="n">
-        <v>1.16965258887992</v>
+        <v>1.25363624065626</v>
       </c>
       <c r="O57" t="n">
-        <v>6.134605774911802</v>
+        <v>7.046275667184117</v>
       </c>
     </row>
     <row r="58">
@@ -3143,46 +3143,46 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0016</v>
+        <v>0.0023</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4872940276697686</v>
+        <v>0.5367459056729404</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6956802370329273</v>
+        <v>0.7972030337235491</v>
       </c>
       <c r="E58" t="n">
-        <v>1.093293832460354</v>
+        <v>1.320481333771151</v>
       </c>
       <c r="F58" t="n">
-        <v>1.264822100506267</v>
+        <v>1.779794254865315</v>
       </c>
       <c r="G58" t="n">
-        <v>2.102048873199524</v>
+        <v>1.960299364532673</v>
       </c>
       <c r="H58" t="n">
-        <v>2.237529312794818</v>
+        <v>2.418146836284667</v>
       </c>
       <c r="I58" t="n">
-        <v>-2.828671420480708</v>
+        <v>-3.325593201575668</v>
       </c>
       <c r="J58" t="n">
-        <v>-2.037430071565247</v>
+        <v>-1.615418738817592</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.3766097528045458</v>
+        <v>-1.377564594757239</v>
       </c>
       <c r="L58" t="n">
-        <v>1.722943830106399</v>
+        <v>-0.445676855798837</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.8043891694665976</v>
+        <v>0.5948391297194988</v>
       </c>
       <c r="N58" t="n">
-        <v>1.772750207482872</v>
+        <v>1.71267783788997</v>
       </c>
       <c r="O58" t="n">
-        <v>6.091939638089258</v>
+        <v>6.885308950966527</v>
       </c>
     </row>
     <row r="59">
@@ -3190,46 +3190,46 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0017</v>
+        <v>0.0026</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4819884829527279</v>
+        <v>0.5278625257262687</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6913072605391701</v>
+        <v>0.7916540036467045</v>
       </c>
       <c r="E59" t="n">
-        <v>1.09094198672393</v>
+        <v>1.314275828135536</v>
       </c>
       <c r="F59" t="n">
-        <v>1.265555095273627</v>
+        <v>1.774675671310788</v>
       </c>
       <c r="G59" t="n">
-        <v>2.097398572331258</v>
+        <v>1.957158805992603</v>
       </c>
       <c r="H59" t="n">
-        <v>2.236785666226319</v>
+        <v>2.416524257588359</v>
       </c>
       <c r="I59" t="n">
-        <v>3.001267469165478</v>
+        <v>2.879816554078094</v>
       </c>
       <c r="J59" t="n">
-        <v>-2.207348157772371</v>
+        <v>-2.102472375330196</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.49260487323694</v>
+        <v>-1.979636979378962</v>
       </c>
       <c r="L59" t="n">
-        <v>1.413288015879817</v>
+        <v>-0.7991880074372583</v>
       </c>
       <c r="M59" t="n">
-        <v>-1.170927030022628</v>
+        <v>0.4206999145186486</v>
       </c>
       <c r="N59" t="n">
-        <v>1.249581484162482</v>
+        <v>1.266559493137464</v>
       </c>
       <c r="O59" t="n">
-        <v>6.054410186634344</v>
+        <v>6.747891359886045</v>
       </c>
     </row>
     <row r="60">
@@ -3237,46 +3237,46 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0015</v>
+        <v>0.0021</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4862712572292895</v>
+        <v>0.5339776061999835</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6863795463280405</v>
+        <v>0.7841292750613645</v>
       </c>
       <c r="E60" t="n">
-        <v>1.088249957061997</v>
+        <v>1.305711654835998</v>
       </c>
       <c r="F60" t="n">
-        <v>1.265806241238657</v>
+        <v>1.767983625746043</v>
       </c>
       <c r="G60" t="n">
-        <v>2.091842418807257</v>
+        <v>1.95316401287477</v>
       </c>
       <c r="H60" t="n">
-        <v>2.23510741911681</v>
+        <v>2.413534349200787</v>
       </c>
       <c r="I60" t="n">
-        <v>-2.949613667287275</v>
+        <v>-3.271666655553091</v>
       </c>
       <c r="J60" t="n">
-        <v>-1.893369903543699</v>
+        <v>-1.632407615257806</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.3660364488156159</v>
+        <v>-1.401571594318467</v>
       </c>
       <c r="L60" t="n">
-        <v>1.698881170422856</v>
+        <v>-0.4774649095717663</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.7468618284940943</v>
+        <v>0.6364510907386205</v>
       </c>
       <c r="N60" t="n">
-        <v>1.785918811543306</v>
+        <v>1.756859667438712</v>
       </c>
       <c r="O60" t="n">
-        <v>6.018036469942895</v>
+        <v>6.614977456437809</v>
       </c>
     </row>
     <row r="61">
@@ -3284,46 +3284,46 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0016</v>
+        <v>0.0025</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4811174298425147</v>
+        <v>0.5259857532503021</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6825099221532329</v>
+        <v>0.7790545475916942</v>
       </c>
       <c r="E61" t="n">
-        <v>1.08606852745318</v>
+        <v>1.300026360012774</v>
       </c>
       <c r="F61" t="n">
-        <v>1.266455853632434</v>
+        <v>1.763268183821875</v>
       </c>
       <c r="G61" t="n">
-        <v>2.087584362436305</v>
+        <v>1.950398915738284</v>
       </c>
       <c r="H61" t="n">
-        <v>2.23443363620545</v>
+        <v>2.412155332369086</v>
       </c>
       <c r="I61" t="n">
-        <v>2.945886144453917</v>
+        <v>2.772010199145667</v>
       </c>
       <c r="J61" t="n">
-        <v>-2.185320355577068</v>
+        <v>-2.133757517852889</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.5080443975034921</v>
+        <v>-2.009428075439265</v>
       </c>
       <c r="L61" t="n">
-        <v>1.480957385248155</v>
+        <v>-0.8377846520112223</v>
       </c>
       <c r="M61" t="n">
-        <v>-1.161085464109273</v>
+        <v>0.4765722700061542</v>
       </c>
       <c r="N61" t="n">
-        <v>1.34135204512127</v>
+        <v>1.359702817548154</v>
       </c>
       <c r="O61" t="n">
-        <v>5.986079296583467</v>
+        <v>6.501491373880306</v>
       </c>
     </row>
     <row r="62">
@@ -3331,46 +3331,46 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0014</v>
+        <v>0.002</v>
       </c>
       <c r="C62" t="n">
-        <v>0.485061059785893</v>
+        <v>0.5316008143650405</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6779213937088644</v>
+        <v>0.7717725174280827</v>
       </c>
       <c r="E62" t="n">
-        <v>1.083517946773249</v>
+        <v>1.291752723924144</v>
       </c>
       <c r="F62" t="n">
-        <v>1.266799056083019</v>
+        <v>1.756765551732292</v>
       </c>
       <c r="G62" t="n">
-        <v>2.082386490713832</v>
+        <v>1.946714349123954</v>
       </c>
       <c r="H62" t="n">
-        <v>2.233004705659715</v>
+        <v>2.409524201082034</v>
       </c>
       <c r="I62" t="n">
-        <v>-2.857764607384965</v>
+        <v>-3.276892136344826</v>
       </c>
       <c r="J62" t="n">
-        <v>-1.888311550781125</v>
+        <v>-1.602332495093196</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.3838277303570952</v>
+        <v>-1.380819956823427</v>
       </c>
       <c r="L62" t="n">
-        <v>1.759858731252274</v>
+        <v>-0.491400426261318</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.7559874332203101</v>
+        <v>0.6710439992599708</v>
       </c>
       <c r="N62" t="n">
-        <v>1.871917823911913</v>
+        <v>1.774437714926344</v>
       </c>
       <c r="O62" t="n">
-        <v>5.954802947590247</v>
+        <v>6.388967401183129</v>
       </c>
     </row>
     <row r="63">
@@ -3378,46 +3378,46 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0016</v>
+        <v>0.0024</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4803811038518538</v>
+        <v>0.5239838284636208</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6743286675865784</v>
+        <v>0.7670243074030402</v>
       </c>
       <c r="E63" t="n">
-        <v>1.081463662825267</v>
+        <v>1.286407578562649</v>
       </c>
       <c r="F63" t="n">
-        <v>1.267489339628256</v>
+        <v>1.752269219776305</v>
       </c>
       <c r="G63" t="n">
-        <v>2.078412767220324</v>
+        <v>1.944163008424226</v>
       </c>
       <c r="H63" t="n">
-        <v>2.232499184025269</v>
+        <v>2.408254028109722</v>
       </c>
       <c r="I63" t="n">
-        <v>2.867358153097221</v>
+        <v>2.792288561972681</v>
       </c>
       <c r="J63" t="n">
-        <v>-2.171166611527791</v>
+        <v>-2.09926582642969</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.5233326925658371</v>
+        <v>-1.982296038805578</v>
       </c>
       <c r="L63" t="n">
-        <v>1.558455328492604</v>
+        <v>-0.8573279550442696</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.149244221103186</v>
+        <v>0.5112217320509266</v>
       </c>
       <c r="N63" t="n">
-        <v>1.446868775099249</v>
+        <v>1.386690301629326</v>
       </c>
       <c r="O63" t="n">
-        <v>5.927497653712971</v>
+        <v>6.293871141797351</v>
       </c>
     </row>
     <row r="64">
@@ -3425,46 +3425,46 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0013</v>
+        <v>0.0019</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4842002671306464</v>
+        <v>0.5294277598240426</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6697758751399954</v>
+        <v>0.7601452110818416</v>
       </c>
       <c r="E64" t="n">
-        <v>1.078895988656641</v>
+        <v>1.278562689880965</v>
       </c>
       <c r="F64" t="n">
-        <v>1.267954885210439</v>
+        <v>1.746006186556736</v>
       </c>
       <c r="G64" t="n">
-        <v>2.073248516039007</v>
+        <v>1.94072394936093</v>
       </c>
       <c r="H64" t="n">
-        <v>2.231242175370987</v>
+        <v>2.405802275166169</v>
       </c>
       <c r="I64" t="n">
-        <v>-2.9364928627934</v>
+        <v>-3.299170589923581</v>
       </c>
       <c r="J64" t="n">
-        <v>-1.773479263240406</v>
+        <v>-1.558798372306836</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.3743664357421059</v>
+        <v>-1.346112345839395</v>
       </c>
       <c r="L64" t="n">
-        <v>1.746958386737376</v>
+        <v>-0.4980042167318451</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.7049523995152703</v>
+        <v>0.7036771198258382</v>
       </c>
       <c r="N64" t="n">
-        <v>1.896145599391749</v>
+        <v>1.784094111829355</v>
       </c>
       <c r="O64" t="n">
-        <v>5.900297028408994</v>
+        <v>6.200156239758824</v>
       </c>
     </row>
     <row r="65">
@@ -3472,46 +3472,46 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0016</v>
+        <v>0.0022</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4797533660617451</v>
+        <v>0.5221534229595221</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6665996434601008</v>
+        <v>0.7557392182734032</v>
       </c>
       <c r="E65" t="n">
-        <v>1.077006747504923</v>
+        <v>1.273575807313096</v>
       </c>
       <c r="F65" t="n">
-        <v>1.268577589762424</v>
+        <v>1.741742566790488</v>
       </c>
       <c r="G65" t="n">
-        <v>2.069636854848786</v>
+        <v>1.938373560384813</v>
       </c>
       <c r="H65" t="n">
-        <v>2.230806549822214</v>
+        <v>2.404621029655829</v>
       </c>
       <c r="I65" t="n">
-        <v>2.745258037813409</v>
+        <v>2.792068837781973</v>
       </c>
       <c r="J65" t="n">
-        <v>-2.170273396005929</v>
+        <v>-2.074419944542286</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.53972813577094</v>
+        <v>-1.961522009698231</v>
       </c>
       <c r="L65" t="n">
-        <v>1.654352959846078</v>
+        <v>-0.8765397746845381</v>
       </c>
       <c r="M65" t="n">
-        <v>-1.136942296342332</v>
+        <v>0.5519698668010466</v>
       </c>
       <c r="N65" t="n">
-        <v>1.576452541043017</v>
+        <v>1.425879054141226</v>
       </c>
       <c r="O65" t="n">
-        <v>5.876717146020786</v>
+        <v>6.119904137450242</v>
       </c>
     </row>
     <row r="66">
@@ -3519,46 +3519,46 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0012</v>
+        <v>0.0018</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4833781735365478</v>
+        <v>0.5271472368721315</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6620606465969552</v>
+        <v>0.7495128681152087</v>
       </c>
       <c r="E66" t="n">
-        <v>1.074419971691681</v>
+        <v>1.266458592115671</v>
       </c>
       <c r="F66" t="n">
-        <v>1.269194830354557</v>
+        <v>1.735982345639242</v>
       </c>
       <c r="G66" t="n">
-        <v>2.06450632820688</v>
+        <v>1.935323472258929</v>
       </c>
       <c r="H66" t="n">
-        <v>2.229759583408167</v>
+        <v>2.402467797309698</v>
       </c>
       <c r="I66" t="n">
-        <v>-2.975853690226709</v>
+        <v>-3.191402456709019</v>
       </c>
       <c r="J66" t="n">
-        <v>-1.682814210065479</v>
+        <v>-1.609378811808213</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.368126884530943</v>
+        <v>-1.397883916046027</v>
       </c>
       <c r="L66" t="n">
-        <v>1.747397985612651</v>
+        <v>-0.5402359235954588</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.6630419329045842</v>
+        <v>0.7613624386893277</v>
       </c>
       <c r="N66" t="n">
-        <v>1.932989473327769</v>
+        <v>1.857902587258518</v>
       </c>
       <c r="O66" t="n">
-        <v>5.852595184519607</v>
+        <v>6.041400274010064</v>
       </c>
     </row>
     <row r="67">
@@ -3566,46 +3566,46 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4792270953000319</v>
+        <v>0.5204538474236854</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6592467967689603</v>
+        <v>0.7452668630913465</v>
       </c>
       <c r="E67" t="n">
-        <v>1.072688915464214</v>
+        <v>1.26166277560098</v>
       </c>
       <c r="F67" t="n">
-        <v>1.269768674140867</v>
+        <v>1.73188515275462</v>
       </c>
       <c r="G67" t="n">
-        <v>2.061233270293546</v>
+        <v>1.933210342398504</v>
       </c>
       <c r="H67" t="n">
-        <v>2.229403459276071</v>
+        <v>2.401487579931605</v>
       </c>
       <c r="I67" t="n">
-        <v>2.5774134646158</v>
+        <v>2.821082141004384</v>
       </c>
       <c r="J67" t="n">
-        <v>-2.176086545019053</v>
+        <v>-2.035423845043407</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.5560459361310703</v>
+        <v>-1.927181555823763</v>
       </c>
       <c r="L67" t="n">
-        <v>1.765899658803856</v>
+        <v>-0.8882682221616207</v>
       </c>
       <c r="M67" t="n">
-        <v>-1.121346479667247</v>
+        <v>0.5878835330534748</v>
       </c>
       <c r="N67" t="n">
-        <v>1.728912793852912</v>
+        <v>1.449982060560605</v>
       </c>
       <c r="O67" t="n">
-        <v>5.83213464198899</v>
+        <v>5.975118001473712</v>
       </c>
     </row>
     <row r="68">
@@ -3613,46 +3613,46 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0011</v>
+        <v>0.0017</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4827940121278687</v>
+        <v>0.5252851668402049</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6544267300879206</v>
+        <v>0.7394274126042635</v>
       </c>
       <c r="E68" t="n">
-        <v>1.069920066216502</v>
+        <v>1.254966202504988</v>
       </c>
       <c r="F68" t="n">
-        <v>1.270612096814794</v>
+        <v>1.726382830667296</v>
       </c>
       <c r="G68" t="n">
-        <v>2.055822884718613</v>
+        <v>1.930385156098879</v>
       </c>
       <c r="H68" t="n">
-        <v>2.228552625144851</v>
+        <v>2.399489418340926</v>
       </c>
       <c r="I68" t="n">
-        <v>-3.121024410504393</v>
+        <v>-3.192158746100004</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.521676104516855</v>
+        <v>-1.579963999378821</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.3418025941021608</v>
+        <v>-1.373904300987206</v>
       </c>
       <c r="L68" t="n">
-        <v>1.690818321538859</v>
+        <v>-0.5487648753888242</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.5828622010512083</v>
+        <v>0.8010587638596605</v>
       </c>
       <c r="N68" t="n">
-        <v>1.918552420455341</v>
+        <v>1.880410626361636</v>
       </c>
       <c r="O68" t="n">
-        <v>5.810052543464159</v>
+        <v>5.909293218342073</v>
       </c>
     </row>
     <row r="69">
@@ -3663,43 +3663,43 @@
         <v>0.002</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4788298118629732</v>
+        <v>0.5189655121882065</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6520330169698554</v>
+        <v>0.7354844472038923</v>
       </c>
       <c r="E69" t="n">
-        <v>1.068367171290152</v>
+        <v>1.250497122649051</v>
       </c>
       <c r="F69" t="n">
-        <v>1.271074323661991</v>
+        <v>1.722515079567001</v>
       </c>
       <c r="G69" t="n">
-        <v>2.052920331124266</v>
+        <v>1.928465301232072</v>
       </c>
       <c r="H69" t="n">
-        <v>2.228211624919693</v>
+        <v>2.398606984394561</v>
       </c>
       <c r="I69" t="n">
-        <v>2.279482645571024</v>
+        <v>2.798592512542916</v>
       </c>
       <c r="J69" t="n">
-        <v>-2.204338923517918</v>
+        <v>-2.020253681995178</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.5756287762229153</v>
+        <v>-1.91161428202611</v>
       </c>
       <c r="L69" t="n">
-        <v>1.920154434889574</v>
+        <v>-0.9041598229800207</v>
       </c>
       <c r="M69" t="n">
-        <v>-1.105290006915487</v>
+        <v>0.6373559854533146</v>
       </c>
       <c r="N69" t="n">
-        <v>1.938401434386802</v>
+        <v>1.503667879370532</v>
       </c>
       <c r="O69" t="n">
-        <v>5.791737530718335</v>
+        <v>5.853215602596762</v>
       </c>
     </row>
     <row r="70">
@@ -3707,46 +3707,46 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4824311175303894</v>
+        <v>0.523524766188916</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6463202730888798</v>
+        <v>0.7299729709454942</v>
       </c>
       <c r="E70" t="n">
-        <v>1.065079179395126</v>
+        <v>1.244172899839701</v>
       </c>
       <c r="F70" t="n">
-        <v>1.272372483884446</v>
+        <v>1.717261729761907</v>
       </c>
       <c r="G70" t="n">
-        <v>2.046603910448187</v>
+        <v>1.925883082600515</v>
       </c>
       <c r="H70" t="n">
-        <v>2.227632004538627</v>
+        <v>2.396817106184513</v>
       </c>
       <c r="I70" t="n">
-        <v>-3.343333341073996</v>
+        <v>-3.169986952499465</v>
       </c>
       <c r="J70" t="n">
-        <v>-1.29450972974546</v>
+        <v>-1.565017234824094</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.2959909328222001</v>
+        <v>-1.362385871892143</v>
       </c>
       <c r="L70" t="n">
-        <v>1.573908653562873</v>
+        <v>-0.5613899094218852</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.4695363208419825</v>
+        <v>0.8466182207783466</v>
       </c>
       <c r="N70" t="n">
-        <v>1.847609854555906</v>
+        <v>1.914796687081536</v>
       </c>
       <c r="O70" t="n">
-        <v>5.76954790550146</v>
+        <v>5.797396535576001</v>
       </c>
     </row>
     <row r="71">
@@ -3754,46 +3754,46 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4782227766259246</v>
+        <v>0.5176151474390146</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6441853600857621</v>
+        <v>0.7263009866162629</v>
       </c>
       <c r="E71" t="n">
-        <v>1.063582002271686</v>
+        <v>1.24000240580493</v>
       </c>
       <c r="F71" t="n">
-        <v>1.272704173671092</v>
+        <v>1.713615887139213</v>
       </c>
       <c r="G71" t="n">
-        <v>2.043836156193767</v>
+        <v>1.924156258821599</v>
       </c>
       <c r="H71" t="n">
-        <v>2.227213980173646</v>
+        <v>2.396045873513948</v>
       </c>
       <c r="I71" t="n">
-        <v>2.215535837042658</v>
+        <v>2.765062039983499</v>
       </c>
       <c r="J71" t="n">
-        <v>-2.134224235901983</v>
+        <v>-2.008552354467657</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.5741448207970331</v>
+        <v>-1.897652303405811</v>
       </c>
       <c r="L71" t="n">
-        <v>1.983655421770229</v>
+        <v>-0.9183810727416123</v>
       </c>
       <c r="M71" t="n">
-        <v>-1.048278883268951</v>
+        <v>0.6921111830067849</v>
       </c>
       <c r="N71" t="n">
-        <v>2.055632998434267</v>
+        <v>1.564986354134726</v>
       </c>
       <c r="O71" t="n">
-        <v>5.752082978488541</v>
+        <v>5.749985368142833</v>
       </c>
     </row>
     <row r="72">
@@ -3801,46 +3801,46 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="C72" t="n">
-        <v>0.481697402746758</v>
+        <v>0.5218852965348492</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6386285408937866</v>
+        <v>0.7211047652682034</v>
       </c>
       <c r="E72" t="n">
-        <v>1.060306548625549</v>
+        <v>1.23404086185743</v>
       </c>
       <c r="F72" t="n">
-        <v>1.274126076167291</v>
+        <v>1.708615092915439</v>
       </c>
       <c r="G72" t="n">
-        <v>2.037651926114842</v>
+        <v>1.921815373177551</v>
       </c>
       <c r="H72" t="n">
-        <v>2.226870818210168</v>
+        <v>2.394466860427128</v>
       </c>
       <c r="I72" t="n">
-        <v>-3.332887939495532</v>
+        <v>-3.132402011949287</v>
       </c>
       <c r="J72" t="n">
-        <v>-1.229640385713716</v>
+        <v>-1.558360348006873</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.2895877900781588</v>
+        <v>-1.357642303571011</v>
       </c>
       <c r="L72" t="n">
-        <v>1.589940881448524</v>
+        <v>-0.5758495306132931</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.4335136265081463</v>
+        <v>0.8971045913345055</v>
       </c>
       <c r="N72" t="n">
-        <v>1.905962808874506</v>
+        <v>1.957686795789104</v>
       </c>
       <c r="O72" t="n">
-        <v>5.73235971691235</v>
+        <v>5.70239722608025</v>
       </c>
     </row>
     <row r="73">
@@ -3848,46 +3848,46 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0027</v>
+        <v>0.0019</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4778828174045158</v>
+        <v>0.5164038655721229</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6367602719671791</v>
+        <v>0.7176855675982908</v>
       </c>
       <c r="E73" t="n">
-        <v>1.058956654286845</v>
+        <v>1.230153337109287</v>
       </c>
       <c r="F73" t="n">
-        <v>1.274441890972572</v>
+        <v>1.705188395980146</v>
       </c>
       <c r="G73" t="n">
-        <v>2.035180760562219</v>
+        <v>1.920278307004787</v>
       </c>
       <c r="H73" t="n">
-        <v>2.226549910200832</v>
+        <v>2.393811690330171</v>
       </c>
       <c r="I73" t="n">
-        <v>1.883797294516307</v>
+        <v>2.716030542286591</v>
       </c>
       <c r="J73" t="n">
-        <v>-2.113724774386966</v>
+        <v>-2.001398183465374</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.5791453359100527</v>
+        <v>-1.886266275460471</v>
       </c>
       <c r="L73" t="n">
-        <v>2.126887423627051</v>
+        <v>-0.9313237892476498</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.9964114931711388</v>
+        <v>0.7534434772336842</v>
       </c>
       <c r="N73" t="n">
-        <v>2.276870421864327</v>
+        <v>1.636184815997708</v>
       </c>
       <c r="O73" t="n">
-        <v>5.717299967662662</v>
+        <v>5.662294653001299</v>
       </c>
     </row>
     <row r="74">
@@ -3895,46 +3895,46 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4816787864927176</v>
+        <v>0.5205831562578804</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6293339623420229</v>
+        <v>0.7125193084712699</v>
       </c>
       <c r="E74" t="n">
-        <v>1.054533778913314</v>
+        <v>1.224232139845404</v>
       </c>
       <c r="F74" t="n">
-        <v>1.276743493910739</v>
+        <v>1.700179022828213</v>
       </c>
       <c r="G74" t="n">
-        <v>2.026995461477139</v>
+        <v>1.918061320828222</v>
       </c>
       <c r="H74" t="n">
-        <v>2.226685775582324</v>
+        <v>2.392372199268939</v>
       </c>
       <c r="I74" t="n">
-        <v>-3.593722626290859</v>
+        <v>-3.220364545504686</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.9487118938540784</v>
+        <v>-1.467957280714322</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.223374293281194</v>
+        <v>-1.273693476501014</v>
       </c>
       <c r="L74" t="n">
-        <v>1.404705846380458</v>
+        <v>-0.5507184585492014</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.2971909823603591</v>
+        <v>0.9202974599090359</v>
       </c>
       <c r="N74" t="n">
-        <v>1.768119125300091</v>
+        <v>1.937622045686098</v>
       </c>
       <c r="O74" t="n">
-        <v>5.695090663629351</v>
+        <v>5.621400405441274</v>
       </c>
     </row>
     <row r="75">
@@ -3942,46 +3942,46 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0059</v>
+        <v>0.0019</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4776033850799341</v>
+        <v>0.5153458294754129</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6277559164858267</v>
+        <v>0.70946664124641</v>
       </c>
       <c r="E75" t="n">
-        <v>1.053255870841119</v>
+        <v>1.220735043982519</v>
       </c>
       <c r="F75" t="n">
-        <v>1.276871456263209</v>
+        <v>1.697027766354285</v>
       </c>
       <c r="G75" t="n">
-        <v>2.024671275033302</v>
+        <v>1.916664451422935</v>
       </c>
       <c r="H75" t="n">
-        <v>2.226227208932041</v>
+        <v>2.391735549053923</v>
       </c>
       <c r="I75" t="n">
-        <v>1.340119542125571</v>
+        <v>2.595719996111893</v>
       </c>
       <c r="J75" t="n">
-        <v>-2.053745015824935</v>
+        <v>-2.018482998702285</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.5718467411346289</v>
+        <v>-1.893943751678949</v>
       </c>
       <c r="L75" t="n">
-        <v>2.30043651722361</v>
+        <v>-0.9498517523640799</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.9049102673527152</v>
+        <v>0.8363428496629056</v>
       </c>
       <c r="N75" t="n">
-        <v>2.569219813282328</v>
+        <v>1.746943708542791</v>
       </c>
       <c r="O75" t="n">
-        <v>5.678841418595571</v>
+        <v>5.586584861383169</v>
       </c>
     </row>
     <row r="76">
@@ -3989,46 +3989,46 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4826922304065033</v>
+        <v>0.5192985403920222</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6119350609851932</v>
+        <v>0.7042835369305075</v>
       </c>
       <c r="E76" t="n">
-        <v>1.043667765430462</v>
+        <v>1.214817154270762</v>
       </c>
       <c r="F76" t="n">
-        <v>1.282910490122875</v>
+        <v>1.69199869526872</v>
       </c>
       <c r="G76" t="n">
-        <v>2.007386743933224</v>
+        <v>1.914611840379591</v>
       </c>
       <c r="H76" t="n">
-        <v>2.228250865297708</v>
+        <v>2.390510444556952</v>
       </c>
       <c r="I76" t="n">
-        <v>-3.943010259409194</v>
+        <v>-3.266144743438284</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.4984286086810483</v>
+        <v>-1.40302562896776</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.1107621759353617</v>
+        <v>-1.212892286039489</v>
       </c>
       <c r="L76" t="n">
-        <v>1.040272260045817</v>
+        <v>-0.5345303905508034</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.1038421019570815</v>
+        <v>0.9525243429356325</v>
       </c>
       <c r="N76" t="n">
-        <v>1.466826534639363</v>
+        <v>1.937070835768864</v>
       </c>
       <c r="O76" t="n">
-        <v>5.641016189015145</v>
+        <v>5.550594631903722</v>
       </c>
     </row>
     <row r="77">
@@ -4036,46 +4036,46 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0287</v>
+        <v>0.002</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4773813874187245</v>
+        <v>0.5143774641230427</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6106026245815938</v>
+        <v>0.7015440350148398</v>
       </c>
       <c r="E77" t="n">
-        <v>1.042282449500823</v>
+        <v>1.211661131998359</v>
       </c>
       <c r="F77" t="n">
-        <v>1.282619324246782</v>
+        <v>1.689104207457155</v>
       </c>
       <c r="G77" t="n">
-        <v>2.004853269318156</v>
+        <v>1.913361126632914</v>
       </c>
       <c r="H77" t="n">
-        <v>2.227337156100918</v>
+        <v>2.389920973065527</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2664070414457084</v>
+        <v>2.447126529670425</v>
       </c>
       <c r="J77" t="n">
-        <v>-1.754438998276437</v>
+        <v>-2.036780682196394</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.4974337994211896</v>
+        <v>-1.900836357283415</v>
       </c>
       <c r="L77" t="n">
-        <v>2.480606380502631</v>
+        <v>-0.9661988607422904</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.6427997974043997</v>
+        <v>0.9304476888430663</v>
       </c>
       <c r="N77" t="n">
-        <v>3.014878105912817</v>
+        <v>1.871684558446974</v>
       </c>
       <c r="O77" t="n">
-        <v>5.615494267423586</v>
+        <v>5.520463957714245</v>
       </c>
     </row>
     <row r="78">
@@ -4083,46 +4083,46 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002</v>
+        <v>0.0012</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4713264236892989</v>
+        <v>0.5182429622541375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5427259300055682</v>
+        <v>0.6960673855804173</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9980925931567611</v>
+        <v>1.205436137019795</v>
       </c>
       <c r="F78" t="n">
-        <v>1.317001552761325</v>
+        <v>1.683793601320756</v>
       </c>
       <c r="G78" t="n">
-        <v>1.928865626303219</v>
+        <v>1.911395299757334</v>
       </c>
       <c r="H78" t="n">
-        <v>2.249939581360519</v>
+        <v>2.38888450023629</v>
       </c>
       <c r="I78" t="n">
-        <v>4.344081624642015</v>
+        <v>-3.389012008875288</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.09856753498557835</v>
+        <v>-1.280604777767578</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.04614371118399788</v>
+        <v>-1.098290261626917</v>
       </c>
       <c r="L78" t="n">
-        <v>0.246981124870475</v>
+        <v>-0.4896250060909148</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.0223826380423473</v>
+        <v>0.9606737108466785</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3288894375656657</v>
+        <v>1.886356213982292</v>
       </c>
       <c r="O78" t="n">
-        <v>5.499394216662346</v>
+        <v>5.488120710576124</v>
       </c>
     </row>
     <row r="79">
@@ -4130,46 +4130,469 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0029</v>
+        <v>0.0023</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4790719340912044</v>
+        <v>0.5135542562887822</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5414433430755859</v>
+        <v>0.6936953789843997</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9960041205480796</v>
+        <v>1.202671665341419</v>
       </c>
       <c r="F79" t="n">
-        <v>1.314861511905544</v>
+        <v>1.681185498991862</v>
       </c>
       <c r="G79" t="n">
-        <v>1.924963129774528</v>
+        <v>1.910254433850641</v>
       </c>
       <c r="H79" t="n">
-        <v>2.246097481072929</v>
+        <v>2.388281466292785</v>
       </c>
       <c r="I79" t="n">
-        <v>1.768574511338695</v>
+        <v>2.152997817541557</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.2544928242237401</v>
+        <v>-2.083488982661504</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.05692084037573777</v>
+        <v>-1.928646946649822</v>
       </c>
       <c r="L79" t="n">
-        <v>1.921213624113226</v>
+        <v>-0.9889912190507478</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.0006849249676984999</v>
+        <v>1.063412239613644</v>
       </c>
       <c r="N79" t="n">
-        <v>3.48792692624857</v>
+        <v>2.060971778677668</v>
       </c>
       <c r="O79" t="n">
-        <v>5.461648072396965</v>
+        <v>5.461050514734301</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5173249764796636</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.6873078549526142</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.195469632533839</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.675044092540364</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.908306696803896</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.387528654011271</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-3.549813516250367</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-1.117621662125913</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.9464482402222766</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-0.4241575007171842</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.9495152895981331</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.795842855440209</v>
+      </c>
+      <c r="O80" t="n">
+        <v>5.429068039795403</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5128511241376605</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6853224324838277</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.193113522873808</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.67273497078778</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.90725202625597</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.386877799632842</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.591547886689271</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-2.147413700718654</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-1.963899519041206</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-1.011216445312022</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.253809269932476</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2.335947537953283</v>
+      </c>
+      <c r="O81" t="n">
+        <v>5.403659753528005</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5169501718353566</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6745580351776583</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.181116873314531</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.662535955406601</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.904768943781941</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.38668426463846</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-3.877078962222345</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.7603417572237016</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.6196478553569482</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.2705609085136438</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8415728300723012</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.509068095876535</v>
+      </c>
+      <c r="O82" t="n">
+        <v>5.360695130996944</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5116773368744874</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6728361554267767</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.178955955640125</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.660216239169897</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.903493108445489</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.385631125235946</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.035831886360568</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-2.10969759889171</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-1.898879944050009</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.9887965573004124</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.48059003613116</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2.598687495439097</v>
+      </c>
+      <c r="O83" t="n">
+        <v>5.32934761097576</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5162898969099649</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.648349858388774</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.151870999722852</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.636904926560958</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.899771561409123</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.387506021293734</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-4.1039964640393</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.3773090809946965</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.2781051951367969</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.1117773132209396</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7411325057796126</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.195113260479262</v>
+      </c>
+      <c r="O84" t="n">
+        <v>5.255602849371571</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5098214960046359</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.6469139358736371</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.149869033050048</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.634456771425263</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.898149466731242</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.385836671428593</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.3322588619226866</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-1.779698896930587</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-1.525455534010453</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.7994260941065602</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.941888055659986</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.006294875972588</v>
+      </c>
+      <c r="O85" t="n">
+        <v>5.211668181308169</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5029164370696318</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6270157106446425</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.127931371600152</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.614498931927902</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.898508123160457</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.390924428705854</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4.25289745782249</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.5011776698479673</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.4773258588338256</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0.3101134169256307</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.3799579399209591</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.495847453127164</v>
+      </c>
+      <c r="O86" t="n">
+        <v>5.170583170647031</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5077914123966105</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.625549059250002</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.125844537200588</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.611996935874393</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.896534007922246</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.388460828637602</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.509325013590854</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1.409266322939292</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-1.156911027984564</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.6007044788746796</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.10604219888322</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2.94172782162907</v>
+      </c>
+      <c r="O87" t="n">
+        <v>5.144628528790322</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5108961665603127</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.6192411315652152</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.118767994948514</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.60513756148867</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.897183483314225</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.390175956315876</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-3.629116815720595</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.5443033027317464</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.390304103288896</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-0.1627471993320702</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.342914486786132</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.898304683919926</v>
+      </c>
+      <c r="O88" t="n">
+        <v>5.133291134572559</v>
       </c>
     </row>
   </sheetData>
